--- a/data/landingPage.xlsx
+++ b/data/landingPage.xlsx
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="779" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="779" uniqueCount="186">
   <si>
     <t>GF15927001 - MITCHELLS &amp; BUTLERS PENSION PLAN</t>
   </si>
@@ -138,6 +138,9 @@
     <t>01/01/2022</t>
   </si>
   <si>
+    <t>01/01/2023</t>
+  </si>
+  <si>
     <t>01/10/2012</t>
   </si>
   <si>
@@ -226,6 +229,9 @@
   </si>
   <si>
     <t>18/04/2022</t>
+  </si>
+  <si>
+    <t>18/04/2023</t>
   </si>
   <si>
     <t>GF75755001 - SAINSBURY'S SIPP</t>
@@ -1691,7 +1697,7 @@
   <sheetData>
     <row r="1" ht="14.4" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B1" s="7"/>
       <c r="C1" s="7"/>
@@ -1714,10 +1720,10 @@
         <v>4</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D3" s="5" t="str">
         <f>IF(B3=C3,"PASS","FAIL")</f>
@@ -1729,10 +1735,10 @@
         <v>6</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D4" s="4" t="str">
         <f>IF(B4=C4,"PASS","FAIL")</f>
@@ -1744,10 +1750,10 @@
         <v>8</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D5" s="4" t="str">
         <f t="shared" ref="D5:D8" si="0">IF(B5=C5,"PASS","FAIL")</f>
@@ -1759,10 +1765,10 @@
         <v>10</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D6" s="4" t="str">
         <f t="shared" si="0"/>
@@ -1774,10 +1780,10 @@
         <v>12</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D7" s="4" t="str">
         <f t="shared" si="0"/>
@@ -1789,10 +1795,10 @@
         <v>14</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D8" s="4" t="str">
         <f t="shared" si="0"/>
@@ -1834,7 +1840,7 @@
   <sheetData>
     <row r="1" ht="14.4" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B1" s="7"/>
       <c r="C1" s="7"/>
@@ -1857,10 +1863,10 @@
         <v>4</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D3" s="5" t="str">
         <f>IF(B3=C3,"PASS","FAIL")</f>
@@ -1872,10 +1878,10 @@
         <v>6</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D4" s="4" t="str">
         <f>IF(B4=C4,"PASS","FAIL")</f>
@@ -1887,10 +1893,10 @@
         <v>8</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D5" s="4" t="str">
         <f t="shared" ref="D5:D8" si="0">IF(B5=C5,"PASS","FAIL")</f>
@@ -1902,10 +1908,10 @@
         <v>10</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D6" s="4" t="str">
         <f t="shared" si="0"/>
@@ -1917,10 +1923,10 @@
         <v>12</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D7" s="4" t="str">
         <f t="shared" si="0"/>
@@ -1932,10 +1938,10 @@
         <v>14</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D8" s="4" t="str">
         <f t="shared" si="0"/>
@@ -1977,7 +1983,7 @@
   <sheetData>
     <row r="1" ht="14.4" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B1" s="7"/>
       <c r="C1" s="7"/>
@@ -2000,10 +2006,10 @@
         <v>4</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D3" s="5" t="str">
         <f>IF(B3=C3,"PASS","FAIL")</f>
@@ -2015,10 +2021,10 @@
         <v>6</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D4" s="4" t="str">
         <f>IF(B4=C4,"PASS","FAIL")</f>
@@ -2030,10 +2036,10 @@
         <v>8</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D5" s="4" t="str">
         <f t="shared" ref="D5:D8" si="0">IF(B5=C5,"PASS","FAIL")</f>
@@ -2045,10 +2051,10 @@
         <v>10</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D6" s="4" t="str">
         <f t="shared" si="0"/>
@@ -2060,10 +2066,10 @@
         <v>12</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D7" s="4" t="str">
         <f t="shared" si="0"/>
@@ -2075,10 +2081,10 @@
         <v>14</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D8" s="4" t="str">
         <f t="shared" si="0"/>
@@ -2120,7 +2126,7 @@
   <sheetData>
     <row r="1" ht="14.4" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B1" s="7"/>
       <c r="C1" s="7"/>
@@ -2143,10 +2149,10 @@
         <v>4</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D3" s="5" t="str">
         <f>IF(B3=C3,"PASS","FAIL")</f>
@@ -2158,10 +2164,10 @@
         <v>6</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D4" s="4" t="str">
         <f>IF(B4=C4,"PASS","FAIL")</f>
@@ -2173,10 +2179,10 @@
         <v>8</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D5" s="4" t="str">
         <f t="shared" ref="D5:D8" si="0">IF(B5=C5,"PASS","FAIL")</f>
@@ -2188,10 +2194,10 @@
         <v>10</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D6" s="4" t="str">
         <f t="shared" si="0"/>
@@ -2259,7 +2265,7 @@
   <sheetData>
     <row r="1" ht="14.4" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B1" s="7"/>
       <c r="C1" s="7"/>
@@ -2282,10 +2288,10 @@
         <v>4</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D3" s="5" t="str">
         <f>IF(B3=C3,"PASS","FAIL")</f>
@@ -2297,10 +2303,10 @@
         <v>6</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="D4" s="4" t="str">
         <f>IF(B4=C4,"PASS","FAIL")</f>
@@ -2312,10 +2318,10 @@
         <v>8</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D5" s="4" t="str">
         <f t="shared" ref="D5:D8" si="0">IF(B5=C5,"PASS","FAIL")</f>
@@ -2327,10 +2333,10 @@
         <v>10</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D6" s="4" t="str">
         <f t="shared" si="0"/>
@@ -2342,10 +2348,10 @@
         <v>12</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="D7" s="4" t="str">
         <f t="shared" si="0"/>
@@ -2357,10 +2363,10 @@
         <v>14</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D8" s="4" t="str">
         <f t="shared" si="0"/>
@@ -2402,7 +2408,7 @@
   <sheetData>
     <row r="1" ht="14.4" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B1" s="7"/>
       <c r="C1" s="7"/>
@@ -2425,10 +2431,10 @@
         <v>4</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D3" s="5" t="str">
         <f>IF(B3=C3,"PASS","FAIL")</f>
@@ -2440,10 +2446,10 @@
         <v>6</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="D4" s="4" t="str">
         <f>IF(B4=C4,"PASS","FAIL")</f>
@@ -2455,10 +2461,10 @@
         <v>8</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D5" s="4" t="str">
         <f t="shared" ref="D5:D8" si="0">IF(B5=C5,"PASS","FAIL")</f>
@@ -2470,10 +2476,10 @@
         <v>10</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D6" s="4" t="str">
         <f t="shared" si="0"/>
@@ -2500,10 +2506,10 @@
         <v>14</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="D8" s="4" t="str">
         <f t="shared" si="0"/>
@@ -2545,7 +2551,7 @@
   <sheetData>
     <row r="1" ht="14.4" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B1" s="7"/>
       <c r="C1" s="7"/>
@@ -2568,10 +2574,10 @@
         <v>4</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="D3" s="5" t="str">
         <f>IF(B3=C3,"PASS","FAIL")</f>
@@ -2583,10 +2589,10 @@
         <v>6</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="D4" s="4" t="str">
         <f>IF(B4=C4,"PASS","FAIL")</f>
@@ -2598,10 +2604,10 @@
         <v>8</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D5" s="4" t="str">
         <f t="shared" ref="D5:D8" si="0">IF(B5=C5,"PASS","FAIL")</f>
@@ -2613,10 +2619,10 @@
         <v>10</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="D6" s="4" t="str">
         <f t="shared" si="0"/>
@@ -2628,10 +2634,10 @@
         <v>12</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="D7" s="4" t="str">
         <f t="shared" si="0"/>
@@ -2643,10 +2649,10 @@
         <v>14</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="D8" s="4" t="str">
         <f t="shared" si="0"/>
@@ -2689,7 +2695,7 @@
   <sheetData>
     <row r="1" ht="14.4" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B1" s="7"/>
       <c r="C1" s="7"/>
@@ -2713,7 +2719,7 @@
       </c>
       <c r="B3" s="4"/>
       <c r="C3" s="4" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="D3" s="5" t="str">
         <f>IF(B3=C3,"PASS","FAIL")</f>
@@ -2726,7 +2732,7 @@
       </c>
       <c r="B4" s="4"/>
       <c r="C4" s="4" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D4" s="4" t="str">
         <f>IF(B4=C4,"PASS","FAIL")</f>
@@ -2739,7 +2745,7 @@
       </c>
       <c r="B5" s="4"/>
       <c r="C5" s="4" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D5" s="4" t="str">
         <f t="shared" ref="D5:D8" si="0">IF(B5=C5,"PASS","FAIL")</f>
@@ -2752,7 +2758,7 @@
       </c>
       <c r="B6" s="4"/>
       <c r="C6" s="4" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="D6" s="4" t="str">
         <f t="shared" si="0"/>
@@ -2765,7 +2771,7 @@
       </c>
       <c r="B7" s="4"/>
       <c r="C7" s="4" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="D7" s="4" t="str">
         <f t="shared" si="0"/>
@@ -2778,7 +2784,7 @@
       </c>
       <c r="B8" s="4"/>
       <c r="C8" s="4" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D8" s="4" t="str">
         <f t="shared" si="0"/>
@@ -2820,7 +2826,7 @@
   <sheetData>
     <row r="1" ht="14.4" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B1" s="7"/>
       <c r="C1" s="7"/>
@@ -2843,10 +2849,10 @@
         <v>4</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="D3" s="5" t="str">
         <f>IF(B3=C3,"PASS","FAIL")</f>
@@ -2858,10 +2864,10 @@
         <v>6</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="D4" s="4" t="str">
         <f>IF(B4=C4,"PASS","FAIL")</f>
@@ -2873,10 +2879,10 @@
         <v>8</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D5" s="4" t="str">
         <f t="shared" ref="D5:D8" si="0">IF(B5=C5,"PASS","FAIL")</f>
@@ -2888,10 +2894,10 @@
         <v>10</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="D6" s="4" t="str">
         <f t="shared" si="0"/>
@@ -2903,10 +2909,10 @@
         <v>12</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D7" s="4" t="str">
         <f t="shared" si="0"/>
@@ -2918,10 +2924,10 @@
         <v>14</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D8" s="4" t="str">
         <f t="shared" si="0"/>
@@ -2963,7 +2969,7 @@
   <sheetData>
     <row r="1" ht="14.4" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B1" s="7"/>
       <c r="C1" s="7"/>
@@ -2986,10 +2992,10 @@
         <v>4</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="D3" s="5" t="str">
         <f>IF(B3=C3,"PASS","FAIL")</f>
@@ -3001,10 +3007,10 @@
         <v>6</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="D4" s="4" t="str">
         <f>IF(B4=C4,"PASS","FAIL")</f>
@@ -3016,10 +3022,10 @@
         <v>8</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D5" s="4" t="str">
         <f t="shared" ref="D5:D8" si="0">IF(B5=C5,"PASS","FAIL")</f>
@@ -3031,10 +3037,10 @@
         <v>10</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D6" s="4" t="str">
         <f t="shared" si="0"/>
@@ -3046,10 +3052,10 @@
         <v>12</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="D7" s="4" t="str">
         <f t="shared" si="0"/>
@@ -3249,7 +3255,7 @@
   <sheetData>
     <row r="1" ht="14.4" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B1" s="7"/>
       <c r="C1" s="7"/>
@@ -3272,10 +3278,10 @@
         <v>4</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="D3" s="5" t="str">
         <f>IF(B3=C3,"PASS","FAIL")</f>
@@ -3287,10 +3293,10 @@
         <v>6</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="D4" s="4" t="str">
         <f>IF(B4=C4,"PASS","FAIL")</f>
@@ -3302,10 +3308,10 @@
         <v>8</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D5" s="4" t="str">
         <f t="shared" ref="D5:D8" si="0">IF(B5=C5,"PASS","FAIL")</f>
@@ -3328,10 +3334,10 @@
         <v>12</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D7" s="4" t="str">
         <f t="shared" si="0"/>
@@ -3388,7 +3394,7 @@
   <sheetData>
     <row r="1" ht="14.4" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B1" s="7"/>
       <c r="C1" s="7"/>
@@ -3411,10 +3417,10 @@
         <v>4</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="D3" s="5" t="str">
         <f>IF(B3=C3,"PASS","FAIL")</f>
@@ -3426,10 +3432,10 @@
         <v>6</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D4" s="4" t="str">
         <f>IF(B4=C4,"PASS","FAIL")</f>
@@ -3486,10 +3492,10 @@
         <v>14</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D8" s="4" t="str">
         <f t="shared" si="0"/>
@@ -3531,7 +3537,7 @@
   <sheetData>
     <row r="1" ht="14.4" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B1" s="7"/>
       <c r="C1" s="7"/>
@@ -3554,10 +3560,10 @@
         <v>4</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="D3" s="5" t="str">
         <f>IF(B3=C3,"PASS","FAIL")</f>
@@ -3569,10 +3575,10 @@
         <v>6</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="D4" s="4" t="str">
         <f>IF(B4=C4,"PASS","FAIL")</f>
@@ -3584,10 +3590,10 @@
         <v>8</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="D5" s="4" t="str">
         <f t="shared" ref="D5:D8" si="0">IF(B5=C5,"PASS","FAIL")</f>
@@ -3625,10 +3631,10 @@
         <v>14</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="D8" s="4" t="str">
         <f t="shared" si="0"/>
@@ -3670,7 +3676,7 @@
   <sheetData>
     <row r="1" ht="14.4" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B1" s="7"/>
       <c r="C1" s="7"/>
@@ -3693,10 +3699,10 @@
         <v>4</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="D3" s="5" t="str">
         <f>IF(B3=C3,"PASS","FAIL")</f>
@@ -3708,10 +3714,10 @@
         <v>6</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="D4" s="4" t="str">
         <f>IF(B4=C4,"PASS","FAIL")</f>
@@ -3723,10 +3729,10 @@
         <v>8</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="D5" s="4" t="str">
         <f t="shared" ref="D5:D8" si="0">IF(B5=C5,"PASS","FAIL")</f>
@@ -3738,10 +3744,10 @@
         <v>10</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="D6" s="4" t="str">
         <f t="shared" si="0"/>
@@ -3769,7 +3775,7 @@
       </c>
       <c r="B8" s="4"/>
       <c r="C8" s="4" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D8" s="4" t="str">
         <f t="shared" si="0"/>
@@ -3811,7 +3817,7 @@
   <sheetData>
     <row r="1" ht="14.4" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B1" s="7"/>
       <c r="C1" s="7"/>
@@ -3834,10 +3840,10 @@
         <v>4</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="D3" s="5" t="str">
         <f>IF(B3=C3,"PASS","FAIL")</f>
@@ -3849,10 +3855,10 @@
         <v>6</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="D4" s="4" t="str">
         <f>IF(B4=C4,"PASS","FAIL")</f>
@@ -3864,10 +3870,10 @@
         <v>8</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="D5" s="4" t="str">
         <f t="shared" ref="D5:D8" si="0">IF(B5=C5,"PASS","FAIL")</f>
@@ -3879,10 +3885,10 @@
         <v>10</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="D6" s="4" t="str">
         <f t="shared" si="0"/>
@@ -3894,10 +3900,10 @@
         <v>12</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="D7" s="4" t="str">
         <f t="shared" si="0"/>
@@ -3909,10 +3915,10 @@
         <v>14</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="D8" s="4" t="str">
         <f t="shared" si="0"/>
@@ -3954,7 +3960,7 @@
   <sheetData>
     <row r="1" ht="14.4" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B1" s="7"/>
       <c r="C1" s="7"/>
@@ -3977,10 +3983,10 @@
         <v>4</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="D3" s="5" t="str">
         <f>IF(B3=C3,"PASS","FAIL")</f>
@@ -3992,10 +3998,10 @@
         <v>6</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="D4" s="4" t="str">
         <f>IF(B4=C4,"PASS","FAIL")</f>
@@ -4007,10 +4013,10 @@
         <v>8</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="D5" s="4" t="str">
         <f t="shared" ref="D5:D8" si="0">IF(B5=C5,"PASS","FAIL")</f>
@@ -4022,10 +4028,10 @@
         <v>10</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="D6" s="4" t="str">
         <f t="shared" si="0"/>
@@ -4052,10 +4058,10 @@
         <v>14</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="D8" s="4" t="str">
         <f t="shared" si="0"/>
@@ -4098,7 +4104,7 @@
   <sheetData>
     <row r="1" ht="14.4" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B1" s="7"/>
       <c r="C1" s="7"/>
@@ -4121,10 +4127,10 @@
         <v>4</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="D3" s="5" t="str">
         <f>IF(B3=C3,"PASS","FAIL")</f>
@@ -4136,10 +4142,10 @@
         <v>6</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="D4" s="4" t="str">
         <f>IF(B4=C4,"PASS","FAIL")</f>
@@ -4241,7 +4247,7 @@
   <sheetData>
     <row r="1" ht="14.4" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -4264,10 +4270,10 @@
         <v>4</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="D3" s="5" t="str">
         <f>IF(B3=C3,"PASS","FAIL")</f>
@@ -4279,10 +4285,10 @@
         <v>6</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="D4" s="4" t="str">
         <f>IF(B4=C4,"PASS","FAIL")</f>
@@ -4294,10 +4300,10 @@
         <v>8</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="D5" s="4" t="str">
         <f t="shared" ref="D5:D8" si="0">IF(B5=C5,"PASS","FAIL")</f>
@@ -4309,10 +4315,10 @@
         <v>10</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="D6" s="4" t="str">
         <f t="shared" si="0"/>
@@ -4324,10 +4330,10 @@
         <v>12</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="D7" s="4" t="str">
         <f t="shared" si="0"/>
@@ -4385,7 +4391,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -4408,10 +4414,10 @@
         <v>4</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="D3" s="5" t="str">
         <f>IF(B3=C3,"PASS","FAIL")</f>
@@ -4423,10 +4429,10 @@
         <v>6</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="D4" s="4" t="str">
         <f>IF(B4=C4,"PASS","FAIL")</f>
@@ -4438,10 +4444,10 @@
         <v>8</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="D5" s="4" t="str">
         <f t="shared" ref="D5:D8" si="0">IF(B5=C5,"PASS","FAIL")</f>
@@ -4453,10 +4459,10 @@
         <v>10</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="D6" s="4" t="str">
         <f t="shared" si="0"/>
@@ -4468,10 +4474,10 @@
         <v>12</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="D7" s="4" t="str">
         <f t="shared" si="0"/>
@@ -4527,7 +4533,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -4550,10 +4556,10 @@
         <v>4</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="D3" s="5" t="str">
         <f>IF(B3=C3,"PASS","FAIL")</f>
@@ -4565,10 +4571,10 @@
         <v>6</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="D4" s="4" t="str">
         <f>IF(B4=C4,"PASS","FAIL")</f>
@@ -4580,10 +4586,10 @@
         <v>8</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="D5" s="4" t="str">
         <f t="shared" ref="D5:D8" si="0">IF(B5=C5,"PASS","FAIL")</f>
@@ -4595,10 +4601,10 @@
         <v>10</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="D6" s="4" t="str">
         <f t="shared" si="0"/>
@@ -4610,7 +4616,7 @@
         <v>12</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>21</v>
@@ -4628,7 +4634,7 @@
         <v>22</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="D8" s="4" t="str">
         <f t="shared" si="0"/>
@@ -4756,7 +4762,7 @@
         <v>28</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D7" s="4" t="str">
         <f t="shared" si="0"/>
@@ -4768,10 +4774,10 @@
         <v>14</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D8" s="4" t="str">
         <f t="shared" si="0"/>
@@ -4812,7 +4818,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -4835,10 +4841,10 @@
         <v>4</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="D3" s="5" t="str">
         <f>IF(B3=C3,"PASS","FAIL")</f>
@@ -4850,10 +4856,10 @@
         <v>6</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="D4" s="4" t="str">
         <f>IF(B4=C4,"PASS","FAIL")</f>
@@ -4865,10 +4871,10 @@
         <v>8</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="D5" s="4" t="str">
         <f t="shared" ref="D5:D8" si="0">IF(B5=C5,"PASS","FAIL")</f>
@@ -4880,10 +4886,10 @@
         <v>10</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="D6" s="4" t="str">
         <f t="shared" si="0"/>
@@ -4895,10 +4901,10 @@
         <v>12</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D7" s="4" t="str">
         <f t="shared" si="0"/>
@@ -4913,7 +4919,7 @@
         <v>22</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="D8" s="4" t="str">
         <f t="shared" si="0"/>
@@ -4954,7 +4960,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -4977,10 +4983,10 @@
         <v>4</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="D3" s="5" t="str">
         <f>IF(B3=C3,"PASS","FAIL")</f>
@@ -4992,10 +4998,10 @@
         <v>6</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="D4" s="4" t="str">
         <f>IF(B4=C4,"PASS","FAIL")</f>
@@ -5007,10 +5013,10 @@
         <v>8</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="D5" s="4" t="str">
         <f t="shared" ref="D5:D8" si="0">IF(B5=C5,"PASS","FAIL")</f>
@@ -5022,10 +5028,10 @@
         <v>10</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="D6" s="4" t="str">
         <f t="shared" si="0"/>
@@ -5037,10 +5043,10 @@
         <v>12</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="D7" s="4" t="str">
         <f t="shared" si="0"/>
@@ -5096,7 +5102,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -5119,10 +5125,10 @@
         <v>4</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="D3" s="5" t="str">
         <f>IF(B3=C3,"PASS","FAIL")</f>
@@ -5134,10 +5140,10 @@
         <v>6</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="D4" s="4" t="str">
         <f>IF(B4=C4,"PASS","FAIL")</f>
@@ -5149,10 +5155,10 @@
         <v>8</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="D5" s="4" t="str">
         <f t="shared" ref="D5:D8" si="0">IF(B5=C5,"PASS","FAIL")</f>
@@ -5164,10 +5170,10 @@
         <v>10</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="D6" s="4" t="str">
         <f t="shared" si="0"/>
@@ -5179,7 +5185,7 @@
         <v>12</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>13</v>
@@ -5197,7 +5203,7 @@
         <v>22</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D8" s="4" t="str">
         <f t="shared" si="0"/>
@@ -5240,7 +5246,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -5263,10 +5269,10 @@
         <v>4</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="D3" s="5" t="str">
         <f>IF(B3=C3,"PASS","FAIL")</f>
@@ -5278,10 +5284,10 @@
         <v>6</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="D4" s="4" t="str">
         <f>IF(B4=C4,"PASS","FAIL")</f>
@@ -5293,10 +5299,10 @@
         <v>8</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="D5" s="4" t="str">
         <f t="shared" ref="D5:D8" si="0">IF(B5=C5,"PASS","FAIL")</f>
@@ -5308,10 +5314,10 @@
         <v>10</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="D6" s="4" t="str">
         <f t="shared" si="0"/>
@@ -5323,10 +5329,10 @@
         <v>12</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="D7" s="4" t="str">
         <f t="shared" si="0"/>
@@ -5388,7 +5394,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -5411,10 +5417,10 @@
         <v>4</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="D3" s="5" t="str">
         <f>IF(B3=C3,"PASS","FAIL")</f>
@@ -5426,10 +5432,10 @@
         <v>6</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="D4" s="4" t="str">
         <f>IF(B4=C4,"PASS","FAIL")</f>
@@ -5441,10 +5447,10 @@
         <v>8</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="D5" s="4" t="str">
         <f t="shared" ref="D5:D8" si="0">IF(B5=C5,"PASS","FAIL")</f>
@@ -5456,10 +5462,10 @@
         <v>10</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="D6" s="4" t="str">
         <f t="shared" si="0"/>
@@ -5471,10 +5477,10 @@
         <v>12</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="D7" s="4" t="str">
         <f t="shared" si="0"/>
@@ -5532,7 +5538,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -5555,10 +5561,10 @@
         <v>4</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="D3" s="5" t="str">
         <f>IF(B3=C3,"PASS","FAIL")</f>
@@ -5570,10 +5576,10 @@
         <v>6</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="D4" s="4" t="str">
         <f>IF(B4=C4,"PASS","FAIL")</f>
@@ -5585,10 +5591,10 @@
         <v>8</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="D5" s="4" t="str">
         <f t="shared" ref="D5:D8" si="0">IF(B5=C5,"PASS","FAIL")</f>
@@ -5600,10 +5606,10 @@
         <v>10</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="D6" s="4" t="str">
         <f t="shared" si="0"/>
@@ -5615,10 +5621,10 @@
         <v>12</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="D7" s="4" t="str">
         <f t="shared" si="0"/>
@@ -5675,7 +5681,7 @@
   <sheetData>
     <row r="1" ht="14.4" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -5698,10 +5704,10 @@
         <v>4</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D3" s="5" t="str">
         <f>IF(B3=C3,"PASS","FAIL")</f>
@@ -5713,10 +5719,10 @@
         <v>6</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D4" s="4" t="str">
         <f>IF(B4=C4,"PASS","FAIL")</f>
@@ -5728,10 +5734,10 @@
         <v>8</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D5" s="4" t="str">
         <f t="shared" ref="D5:D8" si="0">IF(B5=C5,"PASS","FAIL")</f>
@@ -5743,10 +5749,10 @@
         <v>10</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D6" s="4" t="str">
         <f t="shared" si="0"/>
@@ -5758,10 +5764,10 @@
         <v>12</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D7" s="4" t="str">
         <f t="shared" si="0"/>
@@ -5773,10 +5779,10 @@
         <v>14</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D8" s="4" t="str">
         <f t="shared" si="0"/>
@@ -5818,7 +5824,7 @@
   <sheetData>
     <row r="1" ht="14.4" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -5841,10 +5847,10 @@
         <v>4</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D3" s="5" t="str">
         <f>IF(B3=C3,"PASS","FAIL")</f>
@@ -5856,10 +5862,10 @@
         <v>6</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D4" s="4" t="str">
         <f>IF(B4=C4,"PASS","FAIL")</f>
@@ -5871,10 +5877,10 @@
         <v>8</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D5" s="4" t="str">
         <f t="shared" ref="D5:D8" si="0">IF(B5=C5,"PASS","FAIL")</f>
@@ -5886,10 +5892,10 @@
         <v>10</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D6" s="4" t="str">
         <f t="shared" si="0"/>
@@ -5901,10 +5907,10 @@
         <v>12</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D7" s="4" t="str">
         <f t="shared" si="0"/>
@@ -5916,10 +5922,10 @@
         <v>14</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D8" s="4" t="str">
         <f t="shared" si="0"/>
@@ -5962,7 +5968,7 @@
   <sheetData>
     <row r="1" ht="14.4" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="B1" s="12"/>
       <c r="C1" s="12"/>
@@ -5985,10 +5991,10 @@
         <v>4</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="D3" s="5" t="str">
         <f>IF(B3=C3,"PASS","FAIL")</f>
@@ -6000,10 +6006,10 @@
         <v>6</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="D4" s="4" t="str">
         <f>IF(B4=C4,"PASS","FAIL")</f>
@@ -6015,10 +6021,10 @@
         <v>8</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="D5" s="4" t="str">
         <f t="shared" ref="D5:D8" si="0">IF(B5=C5,"PASS","FAIL")</f>
@@ -6030,10 +6036,10 @@
         <v>10</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="D6" s="4" t="str">
         <f t="shared" si="0"/>
@@ -6045,10 +6051,10 @@
         <v>12</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D7" s="4" t="str">
         <f t="shared" si="0"/>
@@ -6106,7 +6112,7 @@
   <sheetData>
     <row r="1" ht="14.4" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B1" s="7"/>
       <c r="C1" s="7"/>
@@ -6129,10 +6135,10 @@
         <v>4</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D3" s="5" t="str">
         <f>IF(B3=C3,"PASS","FAIL")</f>
@@ -6144,10 +6150,10 @@
         <v>6</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D4" s="4" t="str">
         <f>IF(B4=C4,"PASS","FAIL")</f>
@@ -6159,10 +6165,10 @@
         <v>8</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D5" s="4" t="str">
         <f t="shared" ref="D5:D8" si="0">IF(B5=C5,"PASS","FAIL")</f>
@@ -6174,10 +6180,10 @@
         <v>10</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D6" s="4" t="str">
         <f t="shared" si="0"/>
@@ -6189,10 +6195,10 @@
         <v>12</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D7" s="4" t="str">
         <f t="shared" si="0"/>
@@ -6204,10 +6210,10 @@
         <v>14</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D8" s="4" t="str">
         <f t="shared" si="0"/>
@@ -6249,7 +6255,7 @@
   <sheetData>
     <row r="1" ht="14.4" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B1" s="7"/>
       <c r="C1" s="7"/>
@@ -6272,10 +6278,10 @@
         <v>4</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D3" s="5" t="str">
         <f>IF(B3=C3,"PASS","FAIL")</f>
@@ -6287,10 +6293,10 @@
         <v>6</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D4" s="4" t="str">
         <f>IF(B4=C4,"PASS","FAIL")</f>
@@ -6302,10 +6308,10 @@
         <v>8</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D5" s="4" t="str">
         <f t="shared" ref="D5:D8" si="0">IF(B5=C5,"PASS","FAIL")</f>
@@ -6317,10 +6323,10 @@
         <v>10</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D6" s="4" t="str">
         <f t="shared" si="0"/>
@@ -6347,10 +6353,10 @@
         <v>14</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D8" s="4" t="str">
         <f t="shared" si="0"/>
@@ -6392,7 +6398,7 @@
   <sheetData>
     <row r="1" ht="14.4" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B1" s="7"/>
       <c r="C1" s="7"/>
@@ -6415,10 +6421,10 @@
         <v>4</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D3" s="5" t="str">
         <f>IF(B3=C3,"PASS","FAIL")</f>
@@ -6430,10 +6436,10 @@
         <v>6</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D4" s="4" t="str">
         <f>IF(B4=C4,"PASS","FAIL")</f>
@@ -6445,10 +6451,10 @@
         <v>8</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D5" s="4" t="str">
         <f t="shared" ref="D5:D8" si="0">IF(B5=C5,"PASS","FAIL")</f>
@@ -6460,10 +6466,10 @@
         <v>10</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D6" s="4" t="str">
         <f t="shared" si="0"/>
@@ -6475,10 +6481,10 @@
         <v>12</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D7" s="4" t="str">
         <f t="shared" si="0"/>
@@ -6490,10 +6496,10 @@
         <v>14</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D8" s="4" t="str">
         <f t="shared" si="0"/>
@@ -6537,7 +6543,7 @@
   <sheetData>
     <row r="1" ht="14.4" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B1" s="7"/>
       <c r="C1" s="7"/>
@@ -6560,10 +6566,10 @@
         <v>4</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D3" s="5" t="str">
         <f>IF(B3=C3,"PASS","FAIL")</f>
@@ -6575,10 +6581,10 @@
         <v>6</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D4" s="4" t="str">
         <f>IF(B4=C4,"PASS","FAIL")</f>
@@ -6590,10 +6596,10 @@
         <v>8</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D5" s="4" t="str">
         <f t="shared" ref="D5:D8" si="0">IF(B5=C5,"PASS","FAIL")</f>
@@ -6605,10 +6611,10 @@
         <v>10</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D6" s="4" t="str">
         <f t="shared" si="0"/>
@@ -6620,10 +6626,10 @@
         <v>12</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D7" s="4" t="str">
         <f t="shared" si="0"/>
@@ -6635,10 +6641,10 @@
         <v>14</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D8" s="4" t="str">
         <f t="shared" si="0"/>

--- a/data/landingPage.xlsx
+++ b/data/landingPage.xlsx
@@ -4,45 +4,45 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13992" firstSheet="23" activeTab="35"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
   </bookViews>
   <sheets>
-    <sheet sheetId="1" name="Sheet1" state="visible" r:id="rId4"/>
-    <sheet sheetId="2" name="Sheet2" state="visible" r:id="rId5"/>
-    <sheet sheetId="3" name="Sheet3" state="visible" r:id="rId6"/>
-    <sheet sheetId="4" name="Sheet4" state="visible" r:id="rId7"/>
-    <sheet sheetId="5" name="Sheet5" state="visible" r:id="rId8"/>
-    <sheet sheetId="6" name="Sheet6" state="visible" r:id="rId9"/>
-    <sheet sheetId="7" name="Sheet7" state="visible" r:id="rId10"/>
-    <sheet sheetId="8" name="Sheet8" state="visible" r:id="rId11"/>
-    <sheet sheetId="9" name="Sheet9" state="visible" r:id="rId12"/>
-    <sheet sheetId="10" name="Sheet10" state="visible" r:id="rId13"/>
-    <sheet sheetId="11" name="Sheet11" state="visible" r:id="rId14"/>
-    <sheet sheetId="12" name="Sheet12" state="visible" r:id="rId15"/>
-    <sheet sheetId="13" name="Sheet13" state="visible" r:id="rId16"/>
-    <sheet sheetId="14" name="Sheet14" state="visible" r:id="rId17"/>
-    <sheet sheetId="15" name="Sheet15" state="visible" r:id="rId18"/>
-    <sheet sheetId="16" name="Sheet16" state="visible" r:id="rId19"/>
-    <sheet sheetId="17" name="Sheet17" state="visible" r:id="rId20"/>
-    <sheet sheetId="18" name="Sheet18" state="visible" r:id="rId21"/>
-    <sheet sheetId="19" name="Sheet19" state="visible" r:id="rId22"/>
-    <sheet sheetId="20" name="Sheet20" state="visible" r:id="rId23"/>
-    <sheet sheetId="21" name="Sheet21" state="visible" r:id="rId24"/>
-    <sheet sheetId="22" name="Sheet22" state="visible" r:id="rId25"/>
-    <sheet sheetId="23" name="Sheet23" state="visible" r:id="rId26"/>
-    <sheet sheetId="24" name="Sheet24" state="visible" r:id="rId27"/>
-    <sheet sheetId="25" name="Sheet25" state="visible" r:id="rId28"/>
-    <sheet sheetId="26" name="Sheet26" state="visible" r:id="rId29"/>
-    <sheet sheetId="27" name="Sheet27" state="visible" r:id="rId30"/>
-    <sheet sheetId="28" name="Sheet28" state="visible" r:id="rId31"/>
-    <sheet sheetId="29" name="Sheet29" state="visible" r:id="rId32"/>
-    <sheet sheetId="30" name="Sheet30" state="visible" r:id="rId33"/>
-    <sheet sheetId="31" name="Sheet31" state="visible" r:id="rId34"/>
-    <sheet sheetId="32" name="Sheet32" state="visible" r:id="rId35"/>
-    <sheet sheetId="33" name="Sheet33" state="visible" r:id="rId36"/>
-    <sheet sheetId="34" name="Sheet34" state="visible" r:id="rId37"/>
-    <sheet sheetId="36" name="Sheet35" state="visible" r:id="rId38"/>
-    <sheet sheetId="51" name="Sheet36" state="visible" r:id="rId39"/>
+    <sheet sheetId="51" name="Sheet1" state="visible" r:id="rId4"/>
+    <sheet sheetId="8" name="Sheet2" state="visible" r:id="rId5"/>
+    <sheet sheetId="1" name="Sheet50" state="visible" r:id="rId6"/>
+    <sheet sheetId="2" name="Sheet51" state="visible" r:id="rId7"/>
+    <sheet sheetId="3" name="Sheet3" state="visible" r:id="rId8"/>
+    <sheet sheetId="4" name="Sheet4" state="visible" r:id="rId9"/>
+    <sheet sheetId="5" name="Sheet5" state="visible" r:id="rId10"/>
+    <sheet sheetId="6" name="Sheet6" state="visible" r:id="rId11"/>
+    <sheet sheetId="7" name="Sheet7" state="visible" r:id="rId12"/>
+    <sheet sheetId="9" name="Sheet9" state="visible" r:id="rId13"/>
+    <sheet sheetId="10" name="Sheet10" state="visible" r:id="rId14"/>
+    <sheet sheetId="11" name="Sheet11" state="visible" r:id="rId15"/>
+    <sheet sheetId="12" name="Sheet12" state="visible" r:id="rId16"/>
+    <sheet sheetId="13" name="Sheet13" state="visible" r:id="rId17"/>
+    <sheet sheetId="14" name="Sheet14" state="visible" r:id="rId18"/>
+    <sheet sheetId="15" name="Sheet15" state="visible" r:id="rId19"/>
+    <sheet sheetId="16" name="Sheet16" state="visible" r:id="rId20"/>
+    <sheet sheetId="17" name="Sheet17" state="visible" r:id="rId21"/>
+    <sheet sheetId="18" name="Sheet18" state="visible" r:id="rId22"/>
+    <sheet sheetId="19" name="Sheet19" state="visible" r:id="rId23"/>
+    <sheet sheetId="20" name="Sheet20" state="visible" r:id="rId24"/>
+    <sheet sheetId="21" name="Sheet21" state="visible" r:id="rId25"/>
+    <sheet sheetId="22" name="Sheet22" state="visible" r:id="rId26"/>
+    <sheet sheetId="23" name="Sheet23" state="visible" r:id="rId27"/>
+    <sheet sheetId="24" name="Sheet24" state="visible" r:id="rId28"/>
+    <sheet sheetId="25" name="Sheet25" state="visible" r:id="rId29"/>
+    <sheet sheetId="26" name="Sheet26" state="visible" r:id="rId30"/>
+    <sheet sheetId="27" name="Sheet27" state="visible" r:id="rId31"/>
+    <sheet sheetId="28" name="Sheet28" state="visible" r:id="rId32"/>
+    <sheet sheetId="29" name="Sheet29" state="visible" r:id="rId33"/>
+    <sheet sheetId="30" name="Sheet30" state="visible" r:id="rId34"/>
+    <sheet sheetId="31" name="Sheet31" state="visible" r:id="rId35"/>
+    <sheet sheetId="32" name="Sheet32" state="visible" r:id="rId36"/>
+    <sheet sheetId="33" name="Sheet33" state="visible" r:id="rId37"/>
+    <sheet sheetId="34" name="Sheet34" state="visible" r:id="rId38"/>
+    <sheet sheetId="36" name="Sheet35" state="visible" r:id="rId39"/>
   </sheets>
   <calcPr calcId="171027"/>
 </workbook>
@@ -51,54 +51,96 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="779" uniqueCount="186">
   <si>
+    <t>GF61865001 - YOUR SODEXO RETIREMENT PLAN</t>
+  </si>
+  <si>
+    <t>Master Data</t>
+  </si>
+  <si>
+    <t>Actual Data</t>
+  </si>
+  <si>
+    <t>Result</t>
+  </si>
+  <si>
+    <t>Group Name</t>
+  </si>
+  <si>
+    <t>YOUR SODEXO RETIREMENT PLAN</t>
+  </si>
+  <si>
+    <t>Group Reference</t>
+  </si>
+  <si>
+    <t>GF61865001</t>
+  </si>
+  <si>
+    <t>Company Name</t>
+  </si>
+  <si>
+    <t>Sodexo Limited</t>
+  </si>
+  <si>
+    <t>Start Date</t>
+  </si>
+  <si>
+    <t>01/04/2012</t>
+  </si>
+  <si>
+    <t>Renewal Date</t>
+  </si>
+  <si>
+    <t>20/05/2022</t>
+  </si>
+  <si>
+    <t>Auto Enrol Date</t>
+  </si>
+  <si>
+    <t>01/01/2013</t>
+  </si>
+  <si>
+    <t>GF71965001 - SAINSBURY'S RETIREMENT SAVINGS PLAN</t>
+  </si>
+  <si>
+    <t>SAINSBURY'S RETIREMENT SAVINGS PLAN</t>
+  </si>
+  <si>
+    <t>GF71965001</t>
+  </si>
+  <si>
+    <t>J Sainsbury Plc</t>
+  </si>
+  <si>
+    <t>17/07/2012</t>
+  </si>
+  <si>
+    <t>18/04/2022</t>
+  </si>
+  <si>
+    <t>18/04/2023</t>
+  </si>
+  <si>
+    <t>01/10/2012</t>
+  </si>
+  <si>
     <t>GF15927001 - MITCHELLS &amp; BUTLERS PENSION PLAN</t>
   </si>
   <si>
-    <t>Master Data</t>
-  </si>
-  <si>
-    <t>Actual Data</t>
-  </si>
-  <si>
-    <t>Result</t>
-  </si>
-  <si>
-    <t>Group Name</t>
-  </si>
-  <si>
     <t>MITCHELLS &amp; BUTLERS PENSION PLAN</t>
   </si>
   <si>
-    <t>Group Reference</t>
-  </si>
-  <si>
     <t>GF15927001</t>
   </si>
   <si>
-    <t>Company Name</t>
-  </si>
-  <si>
     <t>Mitchells &amp; Butlers Plc</t>
   </si>
   <si>
-    <t>Start Date</t>
-  </si>
-  <si>
     <t>01/02/2018</t>
   </si>
   <si>
-    <t>Renewal Date</t>
-  </si>
-  <si>
     <t>05/04/2022</t>
   </si>
   <si>
-    <t>Auto Enrol Date</t>
-  </si>
-  <si>
-    <t>01/01/2013</t>
-  </si>
-  <si>
     <t>GF06865001 - YOUR M &amp; S PENSION SAVING PLAN</t>
   </si>
   <si>
@@ -141,9 +183,6 @@
     <t>01/01/2023</t>
   </si>
   <si>
-    <t>01/10/2012</t>
-  </si>
-  <si>
     <t>GF32307001 - RBS GROUP RETIREMENT SAVINGS PLAN (GIB)</t>
   </si>
   <si>
@@ -213,27 +252,6 @@
     <t>01/05/2013</t>
   </si>
   <si>
-    <t>GF71965001 - SAINSBURY'S RETIREMENT SAVINGS PLAN</t>
-  </si>
-  <si>
-    <t>SAINSBURY'S RETIREMENT SAVINGS PLAN</t>
-  </si>
-  <si>
-    <t>GF71965001</t>
-  </si>
-  <si>
-    <t>J Sainsbury Plc</t>
-  </si>
-  <si>
-    <t>17/07/2012</t>
-  </si>
-  <si>
-    <t>18/04/2022</t>
-  </si>
-  <si>
-    <t>18/04/2023</t>
-  </si>
-  <si>
     <t>GF75755001 - SAINSBURY'S SIPP</t>
   </si>
   <si>
@@ -252,9 +270,6 @@
     <t>20/05/2021</t>
   </si>
   <si>
-    <t>20/05/2022</t>
-  </si>
-  <si>
     <t>GF90275001 - SAVE THE CHILDREN UK GROUP PERSONAL PENSION</t>
   </si>
   <si>
@@ -592,21 +607,6 @@
   </si>
   <si>
     <t>GF99556001 - THE NORCROS SECURITY PLAN</t>
-  </si>
-  <si>
-    <t>GF61865001 - YOUR SODEXO RETIREMENT PLAN</t>
-  </si>
-  <si>
-    <t>YOUR SODEXO RETIREMENT PLAN</t>
-  </si>
-  <si>
-    <t>GF61865001</t>
-  </si>
-  <si>
-    <t>Sodexo Limited</t>
-  </si>
-  <si>
-    <t>01/04/2012</t>
   </si>
 </sst>
 </file>
@@ -622,6 +622,12 @@
       <name val="Calibri"/>
     </font>
     <font>
+      <color rgb="FFC586C0"/>
+      <family val="3"/>
+      <sz val="12"/>
+      <name val="Consolas"/>
+    </font>
+    <font>
       <b/>
       <color theme="1"/>
       <family val="2"/>
@@ -634,12 +640,6 @@
       <scheme val="minor"/>
       <sz val="11"/>
       <name val="Calibri"/>
-    </font>
-    <font>
-      <color rgb="FFC586C0"/>
-      <family val="3"/>
-      <sz val="12"/>
-      <name val="Consolas"/>
     </font>
   </fonts>
   <fills count="2">
@@ -656,6 +656,15 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -710,48 +719,39 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1541,123 +1541,123 @@
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.55" customHeight="1"/>
+  <sheetFormatPr defaultRowHeight="14.45" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.25" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="14.05078125" customWidth="1"/>
-    <col min="2" max="2" width="37.578125" customWidth="1"/>
-    <col min="3" max="3" width="31.20703125" customWidth="1"/>
-    <col min="4" max="4" width="19.3671875" customWidth="1"/>
+    <col min="1" max="1" width="14" customWidth="1"/>
+    <col min="2" max="2" width="37.5703125" customWidth="1"/>
+    <col min="3" max="3" width="31.140625" customWidth="1"/>
+    <col min="4" max="4" width="19.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.4" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-    </row>
-    <row r="2" ht="14.4" customHeight="1" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="3"/>
-      <c r="B2" s="3" t="s">
+    <row r="1" ht="14.45" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" ht="14.45" customHeight="1" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="8"/>
+      <c r="B2" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="8" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" ht="14.4" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
+    <row r="3" ht="14.45" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" s="5" t="str">
+      <c r="D3" s="4" t="str">
         <f>IF(B3=C3,"PASS","FAIL")</f>
-        <v>PASS</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
+        <v>FAIL</v>
+      </c>
+    </row>
+    <row r="4" ht="15" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="4" t="str">
+      <c r="D4" s="2" t="str">
         <f>IF(B4=C4,"PASS","FAIL")</f>
-        <v>PASS</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
+        <v>FAIL</v>
+      </c>
+    </row>
+    <row r="5" ht="15" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" s="4" t="str">
+      <c r="D5" s="2" t="str">
         <f t="shared" ref="D5:D8" si="0">IF(B5=C5,"PASS","FAIL")</f>
-        <v>PASS</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
+        <v>FAIL</v>
+      </c>
+    </row>
+    <row r="6" ht="15" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>PASS</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
+      <c r="D6" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>FAIL</v>
+      </c>
+    </row>
+    <row r="7" ht="15" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>PASS</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
+      <c r="D7" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>FAIL</v>
+      </c>
+    </row>
+    <row r="8" ht="15" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D8" s="4" t="str">
+      <c r="D8" s="2" t="str">
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
@@ -1667,12 +1667,12 @@
     <mergeCell ref="A1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="D3:D8">
-    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="2" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:D8">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1689,118 +1689,118 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.55" customHeight="1"/>
+  <sheetFormatPr defaultRowHeight="14.45" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.25" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="14.05078125" customWidth="1"/>
-    <col min="2" max="3" width="42.5234375" customWidth="1"/>
+    <col min="1" max="1" width="14" customWidth="1"/>
+    <col min="2" max="3" width="42.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.4" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="8"/>
-    </row>
-    <row r="2" ht="14.4" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="4"/>
-      <c r="B2" s="3" t="s">
+    <row r="1" ht="14.45" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="7"/>
+    </row>
+    <row r="2" ht="14.45" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="2"/>
+      <c r="B2" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="8" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" ht="14.4" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
+    <row r="3" ht="14.45" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="D3" s="5" t="str">
+      <c r="B3" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D3" s="4" t="str">
         <f>IF(B3=C3,"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
+    <row r="4" ht="15" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="D4" s="4" t="str">
+      <c r="B4" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D4" s="2" t="str">
         <f>IF(B4=C4,"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
+    <row r="5" ht="15" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="D5" s="4" t="str">
+      <c r="B5" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="D5" s="2" t="str">
         <f t="shared" ref="D5:D8" si="0">IF(B5=C5,"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
+    <row r="6" ht="15" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="D6" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>PASS</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
+      <c r="B6" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="D6" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+    </row>
+    <row r="7" ht="15" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="D7" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>PASS</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
+      <c r="B7" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="D7" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+    </row>
+    <row r="8" ht="15" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="D8" s="4" t="str">
+      <c r="B8" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="D8" s="2" t="str">
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
@@ -1810,12 +1810,12 @@
     <mergeCell ref="A1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="D3:D8">
-    <cfRule type="cellIs" dxfId="18" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="2" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:D8">
-    <cfRule type="cellIs" dxfId="19" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="1" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1832,118 +1832,118 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.55" customHeight="1"/>
+  <sheetFormatPr defaultRowHeight="14.45" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.25" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="14.05078125" customWidth="1"/>
-    <col min="2" max="3" width="37.83984375" customWidth="1"/>
+    <col min="1" max="1" width="14" customWidth="1"/>
+    <col min="2" max="3" width="37.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.4" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="8"/>
-    </row>
-    <row r="2" ht="14.4" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="4"/>
-      <c r="B2" s="3" t="s">
+    <row r="1" ht="14.45" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="7"/>
+    </row>
+    <row r="2" ht="14.45" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="2"/>
+      <c r="B2" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="8" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" ht="14.4" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
+    <row r="3" ht="14.45" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="D3" s="5" t="str">
+      <c r="B3" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="D3" s="4" t="str">
         <f>IF(B3=C3,"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
+    <row r="4" ht="15" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="D4" s="4" t="str">
+      <c r="B4" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="D4" s="2" t="str">
         <f>IF(B4=C4,"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
+    <row r="5" ht="15" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="D5" s="4" t="str">
+      <c r="B5" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="D5" s="2" t="str">
         <f t="shared" ref="D5:D8" si="0">IF(B5=C5,"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
+    <row r="6" ht="15" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="D6" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>PASS</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
+      <c r="B6" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="D6" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+    </row>
+    <row r="7" ht="15" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="D7" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>PASS</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
+      <c r="B7" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D7" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+    </row>
+    <row r="8" ht="15" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="D8" s="4" t="str">
+      <c r="B8" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D8" s="2" t="str">
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
@@ -1953,12 +1953,12 @@
     <mergeCell ref="A1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="D3:D8">
-    <cfRule type="cellIs" dxfId="20" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="2" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:D8">
-    <cfRule type="cellIs" dxfId="21" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="1" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1975,118 +1975,118 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.55" customHeight="1"/>
+  <sheetFormatPr defaultRowHeight="14.45" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.25" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="14.05078125" customWidth="1"/>
-    <col min="2" max="3" width="26.26171875" customWidth="1"/>
+    <col min="1" max="1" width="14" customWidth="1"/>
+    <col min="2" max="3" width="26.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.4" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="8"/>
-    </row>
-    <row r="2" ht="14.4" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="4"/>
-      <c r="B2" s="3" t="s">
+    <row r="1" ht="14.45" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="7"/>
+    </row>
+    <row r="2" ht="14.45" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="2"/>
+      <c r="B2" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="8" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" ht="14.4" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
+    <row r="3" ht="14.45" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="D3" s="5" t="str">
+      <c r="B3" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D3" s="4" t="str">
         <f>IF(B3=C3,"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
+    <row r="4" ht="15" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="D4" s="2" t="str">
+        <f>IF(B4=C4,"PASS","FAIL")</f>
+        <v>PASS</v>
+      </c>
+    </row>
+    <row r="5" ht="15" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C5" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="D4" s="4" t="str">
-        <f>IF(B4=C4,"PASS","FAIL")</f>
-        <v>PASS</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="D5" s="4" t="str">
+      <c r="D5" s="2" t="str">
         <f t="shared" ref="D5:D8" si="0">IF(B5=C5,"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
+    <row r="6" ht="15" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="D6" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>PASS</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
+      <c r="B6" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="D6" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+    </row>
+    <row r="7" ht="15" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="C7" s="4" t="s">
+      <c r="B7" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="D7" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>FAIL</v>
+      </c>
+    </row>
+    <row r="8" ht="15" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="D7" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>FAIL</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="D8" s="4" t="str">
+      <c r="C8" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D8" s="2" t="str">
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
@@ -2096,12 +2096,12 @@
     <mergeCell ref="A1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="D3:D8">
-    <cfRule type="cellIs" dxfId="22" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="2" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:D8">
-    <cfRule type="cellIs" dxfId="23" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="1" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2118,114 +2118,114 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.55" customHeight="1"/>
+  <sheetFormatPr defaultRowHeight="14.45" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.25" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="14.05078125" customWidth="1"/>
-    <col min="2" max="3" width="56.47265625" customWidth="1"/>
+    <col min="1" max="1" width="14" customWidth="1"/>
+    <col min="2" max="3" width="56.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.4" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="8"/>
-    </row>
-    <row r="2" ht="14.4" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="4"/>
-      <c r="B2" s="3" t="s">
+    <row r="1" ht="14.45" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="7"/>
+    </row>
+    <row r="2" ht="14.45" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="2"/>
+      <c r="B2" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="8" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" ht="14.4" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
+    <row r="3" ht="14.45" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="D3" s="5" t="str">
+      <c r="B3" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="D3" s="4" t="str">
         <f>IF(B3=C3,"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
+    <row r="4" ht="15" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="D4" s="4" t="str">
+      <c r="B4" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="D4" s="2" t="str">
         <f>IF(B4=C4,"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
+    <row r="5" ht="15" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="D5" s="4" t="str">
+      <c r="B5" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="D5" s="2" t="str">
         <f t="shared" ref="D5:D8" si="0">IF(B5=C5,"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
+    <row r="6" ht="15" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="D6" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>PASS</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
+      <c r="B6" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="D6" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+    </row>
+    <row r="7" ht="15" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>PASS</v>
-      </c>
-    </row>
-    <row r="8" ht="14.4" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
+      <c r="B7" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+    </row>
+    <row r="8" ht="14.45" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4" t="str">
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2" t="str">
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
@@ -2235,12 +2235,12 @@
     <mergeCell ref="A1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="D3:D8">
-    <cfRule type="cellIs" dxfId="24" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="2" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:D8">
-    <cfRule type="cellIs" dxfId="25" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="1" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2257,118 +2257,118 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.55" customHeight="1"/>
+  <sheetFormatPr defaultRowHeight="14.45" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.25" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="14.05078125" customWidth="1"/>
-    <col min="2" max="3" width="28.5234375" customWidth="1"/>
+    <col min="1" max="1" width="14" customWidth="1"/>
+    <col min="2" max="3" width="28.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.4" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="8"/>
-    </row>
-    <row r="2" ht="14.4" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="4"/>
-      <c r="B2" s="3" t="s">
+    <row r="1" ht="14.45" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="7"/>
+    </row>
+    <row r="2" ht="14.45" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="2"/>
+      <c r="B2" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="8" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" ht="14.4" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
+    <row r="3" ht="14.45" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="D3" s="5" t="str">
+      <c r="B3" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="D3" s="4" t="str">
         <f>IF(B3=C3,"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
+    <row r="4" ht="15" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="D4" s="4" t="str">
+      <c r="B4" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="D4" s="2" t="str">
         <f>IF(B4=C4,"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
+    <row r="5" ht="15" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="D5" s="4" t="str">
+      <c r="B5" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="D5" s="2" t="str">
         <f t="shared" ref="D5:D8" si="0">IF(B5=C5,"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
+    <row r="6" ht="15" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="D6" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>PASS</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
+      <c r="B6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+    </row>
+    <row r="7" ht="15" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="D7" s="4" t="str">
+      <c r="B7" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="D7" s="2" t="str">
         <f t="shared" si="0"/>
         <v>FAIL</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
+    <row r="8" ht="15" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="D8" s="4" t="str">
+      <c r="B8" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" s="2" t="str">
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
@@ -2378,12 +2378,12 @@
     <mergeCell ref="A1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="D3:D8">
-    <cfRule type="cellIs" dxfId="26" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="2" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:D8">
-    <cfRule type="cellIs" dxfId="27" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="1" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2400,118 +2400,118 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.55" customHeight="1"/>
+  <sheetFormatPr defaultRowHeight="14.45" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.25" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="14.05078125" customWidth="1"/>
-    <col min="2" max="3" width="41.578125" customWidth="1"/>
+    <col min="1" max="1" width="14" customWidth="1"/>
+    <col min="2" max="3" width="41.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.4" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="8"/>
-    </row>
-    <row r="2" ht="14.4" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="4"/>
-      <c r="B2" s="3" t="s">
+    <row r="1" ht="14.45" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="7"/>
+    </row>
+    <row r="2" ht="14.45" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="2"/>
+      <c r="B2" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="8" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" ht="14.4" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
+    <row r="3" ht="14.45" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="D3" s="5" t="str">
+      <c r="B3" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="D3" s="4" t="str">
         <f>IF(B3=C3,"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
+    <row r="4" ht="15" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="D4" s="4" t="str">
+      <c r="B4" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="D4" s="2" t="str">
         <f>IF(B4=C4,"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
+    <row r="5" ht="15" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="D5" s="4" t="str">
+      <c r="B5" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="D5" s="2" t="str">
         <f t="shared" ref="D5:D8" si="0">IF(B5=C5,"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
+    <row r="6" ht="15" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="D6" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>PASS</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
+      <c r="B6" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="D6" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+    </row>
+    <row r="7" ht="15" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>PASS</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
+      <c r="B7" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+    </row>
+    <row r="8" ht="15" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="D8" s="4" t="str">
+      <c r="B8" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="D8" s="2" t="str">
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
@@ -2521,12 +2521,12 @@
     <mergeCell ref="A1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="D3:D8">
-    <cfRule type="cellIs" dxfId="28" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="2" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:D8">
-    <cfRule type="cellIs" dxfId="29" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="1" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2543,118 +2543,118 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.55" customHeight="1"/>
+  <sheetFormatPr defaultRowHeight="14.45" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.25" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="14.05078125" customWidth="1"/>
-    <col min="2" max="3" width="25.05078125" customWidth="1"/>
+    <col min="1" max="1" width="14" customWidth="1"/>
+    <col min="2" max="3" width="25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.4" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="8"/>
-    </row>
-    <row r="2" ht="14.4" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="4"/>
-      <c r="B2" s="3" t="s">
+    <row r="1" ht="14.45" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="7"/>
+    </row>
+    <row r="2" ht="14.45" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="2"/>
+      <c r="B2" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="8" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" ht="14.4" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
+    <row r="3" ht="14.45" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="D3" s="5" t="str">
+      <c r="B3" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="D3" s="4" t="str">
         <f>IF(B3=C3,"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
+    <row r="4" ht="15" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="D4" s="4" t="str">
+      <c r="B4" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="D4" s="2" t="str">
         <f>IF(B4=C4,"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
+    <row r="5" ht="15" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="D5" s="4" t="str">
+      <c r="B5" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="D5" s="2" t="str">
         <f t="shared" ref="D5:D8" si="0">IF(B5=C5,"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
+    <row r="6" ht="15" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="D6" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>PASS</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
+      <c r="B6" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="D6" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+    </row>
+    <row r="7" ht="15" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="D7" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>PASS</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
+      <c r="B7" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="D7" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+    </row>
+    <row r="8" ht="15" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="D8" s="4" t="str">
+      <c r="B8" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="D8" s="2" t="str">
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
@@ -2664,12 +2664,12 @@
     <mergeCell ref="A1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="D3:D8">
-    <cfRule type="cellIs" dxfId="30" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="2" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:D8">
-    <cfRule type="cellIs" dxfId="31" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="1" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2686,107 +2686,107 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.55" customHeight="1"/>
+  <sheetFormatPr defaultRowHeight="14.45" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.25" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="14.05078125" customWidth="1"/>
-    <col min="2" max="2" width="10.68359375" customWidth="1"/>
-    <col min="3" max="3" width="29.62890625" customWidth="1"/>
+    <col min="1" max="1" width="14" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" customWidth="1"/>
+    <col min="3" max="3" width="29.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.4" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
-        <v>109</v>
-      </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="8"/>
-    </row>
-    <row r="2" ht="14.4" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="4"/>
-      <c r="B2" s="3" t="s">
+    <row r="1" ht="14.45" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="7"/>
+    </row>
+    <row r="2" ht="14.45" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="2"/>
+      <c r="B2" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="8" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" ht="14.4" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
+    <row r="3" ht="14.45" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="D3" s="5" t="str">
+      <c r="B3" s="2"/>
+      <c r="C3" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="D3" s="4" t="str">
         <f>IF(B3=C3,"PASS","FAIL")</f>
         <v>FAIL</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
+    <row r="4" ht="15" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="D4" s="4" t="str">
+      <c r="B4" s="2"/>
+      <c r="C4" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="D4" s="2" t="str">
         <f>IF(B4=C4,"PASS","FAIL")</f>
         <v>FAIL</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
+    <row r="5" ht="15" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="D5" s="4" t="str">
+      <c r="B5" s="2"/>
+      <c r="C5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="2" t="str">
         <f t="shared" ref="D5:D8" si="0">IF(B5=C5,"PASS","FAIL")</f>
         <v>FAIL</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
+    <row r="6" ht="15" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="D6" s="4" t="str">
+      <c r="B6" s="2"/>
+      <c r="C6" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="D6" s="2" t="str">
         <f t="shared" si="0"/>
         <v>FAIL</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
+    <row r="7" ht="15" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="D7" s="4" t="str">
+      <c r="B7" s="2"/>
+      <c r="C7" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="D7" s="2" t="str">
         <f t="shared" si="0"/>
         <v>FAIL</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
+    <row r="8" ht="15" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="D8" s="4" t="str">
+      <c r="B8" s="2"/>
+      <c r="C8" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D8" s="2" t="str">
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
@@ -2796,12 +2796,12 @@
     <mergeCell ref="A1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="D3:D8">
-    <cfRule type="cellIs" dxfId="32" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="34" priority="2" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:D8">
-    <cfRule type="cellIs" dxfId="33" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="35" priority="1" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2818,118 +2818,118 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.55" customHeight="1"/>
+  <sheetFormatPr defaultRowHeight="14.45" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.25" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="14.05078125" customWidth="1"/>
-    <col min="2" max="3" width="27.9453125" customWidth="1"/>
+    <col min="1" max="1" width="14" customWidth="1"/>
+    <col min="2" max="3" width="28" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.4" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
-        <v>114</v>
-      </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="8"/>
-    </row>
-    <row r="2" ht="14.4" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="4"/>
-      <c r="B2" s="3" t="s">
+    <row r="1" ht="14.45" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="7"/>
+    </row>
+    <row r="2" ht="14.45" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="2"/>
+      <c r="B2" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="8" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" ht="14.4" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
+    <row r="3" ht="14.45" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="D3" s="5" t="str">
+      <c r="B3" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="D3" s="4" t="str">
         <f>IF(B3=C3,"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
+    <row r="4" ht="15" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="D4" s="4" t="str">
+      <c r="B4" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="D4" s="2" t="str">
         <f>IF(B4=C4,"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
+    <row r="5" ht="15" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="D5" s="4" t="str">
+      <c r="B5" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D5" s="2" t="str">
         <f t="shared" ref="D5:D8" si="0">IF(B5=C5,"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
+    <row r="6" ht="15" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="D6" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>PASS</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
+      <c r="B6" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="D6" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+    </row>
+    <row r="7" ht="15" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="D7" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>PASS</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
+      <c r="B7" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D7" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+    </row>
+    <row r="8" ht="15" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="D8" s="4" t="str">
+      <c r="B8" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D8" s="2" t="str">
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
@@ -2939,12 +2939,12 @@
     <mergeCell ref="A1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="D3:D8">
-    <cfRule type="cellIs" dxfId="34" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="36" priority="2" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:D8">
-    <cfRule type="cellIs" dxfId="35" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="37" priority="1" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2961,118 +2961,118 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.55" customHeight="1"/>
+  <sheetFormatPr defaultRowHeight="14.45" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.25" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="14.05078125" customWidth="1"/>
-    <col min="2" max="3" width="27.5234375" customWidth="1"/>
+    <col min="1" max="1" width="14" customWidth="1"/>
+    <col min="2" max="3" width="27.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.4" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="8"/>
-    </row>
-    <row r="2" ht="14.4" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="4"/>
-      <c r="B2" s="3" t="s">
+    <row r="1" ht="14.45" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="7"/>
+    </row>
+    <row r="2" ht="14.45" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="2"/>
+      <c r="B2" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="8" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" ht="14.4" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
+    <row r="3" ht="14.45" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="D3" s="5" t="str">
+      <c r="B3" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="D3" s="4" t="str">
         <f>IF(B3=C3,"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
+    <row r="4" ht="15" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="D4" s="4" t="str">
+      <c r="B4" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="D4" s="2" t="str">
         <f>IF(B4=C4,"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
+    <row r="5" ht="15" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="D5" s="4" t="str">
+      <c r="B5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="2" t="str">
         <f t="shared" ref="D5:D8" si="0">IF(B5=C5,"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
+    <row r="6" ht="15" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="D6" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>PASS</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
+      <c r="B6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+    </row>
+    <row r="7" ht="15" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="D7" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>PASS</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
+      <c r="B7" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="D7" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+    </row>
+    <row r="8" ht="15" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D8" s="4" t="str">
+      <c r="D8" s="2" t="str">
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
@@ -3082,12 +3082,12 @@
     <mergeCell ref="A1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="D3:D8">
-    <cfRule type="cellIs" dxfId="36" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="38" priority="2" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:D8">
-    <cfRule type="cellIs" dxfId="37" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="39" priority="1" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3101,123 +3101,123 @@
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.55" customHeight="1"/>
+  <sheetFormatPr defaultRowHeight="14.45" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.25" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="14.05078125" customWidth="1"/>
-    <col min="2" max="3" width="29.3671875" customWidth="1"/>
+    <col min="1" max="1" width="14" customWidth="1"/>
+    <col min="2" max="3" width="29.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.4" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="8"/>
-    </row>
-    <row r="2" ht="14.4" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="4"/>
-      <c r="B2" s="3" t="s">
+    <row r="1" ht="14.45" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="7"/>
+    </row>
+    <row r="2" ht="14.45" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="2"/>
+      <c r="B2" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="8" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" ht="14.4" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
+    <row r="3" ht="14.45" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D3" s="5" t="str">
+      <c r="D3" s="4" t="str">
         <f>IF(B3=C3,"PASS","FAIL")</f>
-        <v>PASS</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
+        <v>FAIL</v>
+      </c>
+    </row>
+    <row r="4" ht="15" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D4" s="4" t="str">
+      <c r="D4" s="2" t="str">
         <f>IF(B4=C4,"PASS","FAIL")</f>
-        <v>PASS</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
+        <v>FAIL</v>
+      </c>
+    </row>
+    <row r="5" ht="15" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D5" s="4" t="str">
+      <c r="D5" s="2" t="str">
         <f t="shared" ref="D5:D8" si="0">IF(B5=C5,"PASS","FAIL")</f>
-        <v>PASS</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
+        <v>FAIL</v>
+      </c>
+    </row>
+    <row r="6" ht="15" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C6" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D6" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>PASS</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
+      <c r="D6" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>FAIL</v>
+      </c>
+    </row>
+    <row r="7" ht="15" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D7" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>PASS</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
+      <c r="B7" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>FAIL</v>
+      </c>
+    </row>
+    <row r="8" ht="15" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D8" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>PASS</v>
+      <c r="B8" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>FAIL</v>
       </c>
     </row>
   </sheetData>
@@ -3225,12 +3225,12 @@
     <mergeCell ref="A1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="D3:D8">
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="2" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:D8">
-    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="1" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3247,114 +3247,114 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.55" customHeight="1"/>
+  <sheetFormatPr defaultRowHeight="14.45" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.25" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="14.05078125" customWidth="1"/>
-    <col min="2" max="3" width="33.20703125" customWidth="1"/>
+    <col min="1" max="1" width="14" customWidth="1"/>
+    <col min="2" max="3" width="33.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.4" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="8"/>
-    </row>
-    <row r="2" ht="14.4" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="4"/>
-      <c r="B2" s="3" t="s">
+    <row r="1" ht="14.45" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="7"/>
+    </row>
+    <row r="2" ht="14.45" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="2"/>
+      <c r="B2" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="8" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" ht="14.4" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
+    <row r="3" ht="14.45" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="D3" s="5" t="str">
+      <c r="B3" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="D3" s="4" t="str">
         <f>IF(B3=C3,"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
+    <row r="4" ht="15" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="D4" s="4" t="str">
+      <c r="B4" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="D4" s="2" t="str">
         <f>IF(B4=C4,"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
+    <row r="5" ht="15" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="D5" s="4" t="str">
+      <c r="B5" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="D5" s="2" t="str">
         <f t="shared" ref="D5:D8" si="0">IF(B5=C5,"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
     </row>
-    <row r="6" ht="14.4" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
+    <row r="6" ht="14.45" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>PASS</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+    </row>
+    <row r="7" ht="15" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D7" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+    </row>
+    <row r="8" ht="15" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C8" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="D7" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>PASS</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D8" s="4" t="str">
+      <c r="D8" s="2" t="str">
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
@@ -3364,12 +3364,12 @@
     <mergeCell ref="A1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="D3:D8">
-    <cfRule type="cellIs" dxfId="38" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="40" priority="2" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:D8">
-    <cfRule type="cellIs" dxfId="39" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="41" priority="1" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3386,118 +3386,118 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.55" customHeight="1"/>
+  <sheetFormatPr defaultRowHeight="14.45" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.25" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="14.05078125" customWidth="1"/>
-    <col min="2" max="3" width="19.05078125" customWidth="1"/>
+    <col min="1" max="1" width="14" customWidth="1"/>
+    <col min="2" max="3" width="19" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.4" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="8"/>
-    </row>
-    <row r="2" ht="14.4" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="4"/>
-      <c r="B2" s="3" t="s">
+    <row r="1" ht="14.45" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="7"/>
+    </row>
+    <row r="2" ht="14.45" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="2"/>
+      <c r="B2" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="8" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" ht="14.4" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
+    <row r="3" ht="14.45" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="D3" s="5" t="str">
+      <c r="B3" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="D3" s="4" t="str">
         <f>IF(B3=C3,"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
+    <row r="4" ht="15" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="D4" s="4" t="str">
+      <c r="B4" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="D4" s="2" t="str">
         <f>IF(B4=C4,"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
+    <row r="5" ht="15" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D5" s="4" t="str">
+      <c r="B5" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D5" s="2" t="str">
         <f t="shared" ref="D5:D8" si="0">IF(B5=C5,"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
+    <row r="6" ht="15" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D6" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>PASS</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
+      <c r="B6" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D6" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+    </row>
+    <row r="7" ht="15" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D7" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>PASS</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
+      <c r="B7" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D7" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+    </row>
+    <row r="8" ht="15" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="D8" s="4" t="str">
+      <c r="B8" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D8" s="2" t="str">
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
@@ -3507,12 +3507,12 @@
     <mergeCell ref="A1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="D3:D8">
-    <cfRule type="cellIs" dxfId="40" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="42" priority="2" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:D8">
-    <cfRule type="cellIs" dxfId="41" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="43" priority="1" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3529,114 +3529,114 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.55" customHeight="1"/>
+  <sheetFormatPr defaultRowHeight="14.45" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.25" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="14.05078125" customWidth="1"/>
-    <col min="2" max="3" width="29.47265625" customWidth="1"/>
+    <col min="1" max="1" width="14" customWidth="1"/>
+    <col min="2" max="3" width="29.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.4" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
-        <v>128</v>
-      </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="8"/>
-    </row>
-    <row r="2" ht="14.4" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="4"/>
-      <c r="B2" s="3" t="s">
+    <row r="1" ht="14.45" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="7"/>
+    </row>
+    <row r="2" ht="14.45" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="2"/>
+      <c r="B2" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="8" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" ht="14.4" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
+    <row r="3" ht="14.45" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="D3" s="5" t="str">
+      <c r="B3" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="D3" s="4" t="str">
         <f>IF(B3=C3,"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
+    <row r="4" ht="15" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="D4" s="4" t="str">
+      <c r="B4" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="D4" s="2" t="str">
         <f>IF(B4=C4,"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
+    <row r="5" ht="15" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="D5" s="4" t="str">
+      <c r="B5" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="D5" s="2" t="str">
         <f t="shared" ref="D5:D8" si="0">IF(B5=C5,"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
     </row>
-    <row r="6" ht="14.4" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
+    <row r="6" ht="14.45" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>PASS</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+    </row>
+    <row r="7" ht="15" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>PASS</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
+      <c r="B7" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+    </row>
+    <row r="8" ht="15" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="D8" s="4" t="str">
+      <c r="B8" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="D8" s="2" t="str">
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
@@ -3646,12 +3646,12 @@
     <mergeCell ref="A1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="D3:D8">
-    <cfRule type="cellIs" dxfId="42" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="44" priority="2" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:D8">
-    <cfRule type="cellIs" dxfId="43" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="45" priority="1" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3668,116 +3668,116 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.55" customHeight="1"/>
+  <sheetFormatPr defaultRowHeight="14.45" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.25" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="14.05078125" customWidth="1"/>
-    <col min="2" max="3" width="23.15625" customWidth="1"/>
+    <col min="1" max="1" width="14" customWidth="1"/>
+    <col min="2" max="3" width="23.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.4" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
-        <v>132</v>
-      </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="8"/>
-    </row>
-    <row r="2" ht="14.4" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="4"/>
-      <c r="B2" s="3" t="s">
+    <row r="1" ht="14.45" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="7"/>
+    </row>
+    <row r="2" ht="14.45" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="2"/>
+      <c r="B2" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="8" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" ht="14.4" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
+    <row r="3" ht="14.45" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="D3" s="5" t="str">
+      <c r="B3" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="D3" s="4" t="str">
         <f>IF(B3=C3,"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
+    <row r="4" ht="15" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="D4" s="4" t="str">
+      <c r="B4" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="D4" s="2" t="str">
         <f>IF(B4=C4,"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
+    <row r="5" ht="15" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="D5" s="4" t="str">
+      <c r="B5" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="D5" s="2" t="str">
         <f t="shared" ref="D5:D8" si="0">IF(B5=C5,"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
+    <row r="6" ht="15" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="D6" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>PASS</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
+      <c r="B6" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="D6" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+    </row>
+    <row r="7" ht="15" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>PASS</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
+      <c r="B7" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+    </row>
+    <row r="8" ht="15" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="D8" s="4" t="str">
+      <c r="B8" s="2"/>
+      <c r="C8" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D8" s="2" t="str">
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
@@ -3787,12 +3787,12 @@
     <mergeCell ref="A1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="D3:D8">
-    <cfRule type="cellIs" dxfId="44" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="46" priority="2" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:D8">
-    <cfRule type="cellIs" dxfId="45" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="47" priority="1" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3809,118 +3809,118 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.55" customHeight="1"/>
+  <sheetFormatPr defaultRowHeight="14.45" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.25" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="14.05078125" customWidth="1"/>
-    <col min="2" max="3" width="33.3125" customWidth="1"/>
+    <col min="1" max="1" width="14" customWidth="1"/>
+    <col min="2" max="3" width="33.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.4" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
-        <v>137</v>
-      </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="8"/>
-    </row>
-    <row r="2" ht="14.4" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="4"/>
-      <c r="B2" s="3" t="s">
+    <row r="1" ht="14.45" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="7"/>
+    </row>
+    <row r="2" ht="14.45" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="2"/>
+      <c r="B2" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="8" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" ht="14.4" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
+    <row r="3" ht="14.45" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="D3" s="5" t="str">
+      <c r="B3" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="D3" s="4" t="str">
         <f>IF(B3=C3,"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
+    <row r="4" ht="15" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="D4" s="4" t="str">
+      <c r="B4" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="D4" s="2" t="str">
         <f>IF(B4=C4,"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
+    <row r="5" ht="15" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="D5" s="4" t="str">
+      <c r="B5" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="D5" s="2" t="str">
         <f t="shared" ref="D5:D8" si="0">IF(B5=C5,"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
+    <row r="6" ht="15" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="D6" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>PASS</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
+      <c r="B6" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="D6" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+    </row>
+    <row r="7" ht="15" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="D7" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>PASS</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
+      <c r="B7" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="D7" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+    </row>
+    <row r="8" ht="15" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="D8" s="4" t="str">
+      <c r="B8" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="D8" s="2" t="str">
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
@@ -3930,12 +3930,12 @@
     <mergeCell ref="A1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="D3:D8">
-    <cfRule type="cellIs" dxfId="46" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="48" priority="2" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:D8">
-    <cfRule type="cellIs" dxfId="47" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="49" priority="1" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3952,118 +3952,118 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.55" customHeight="1"/>
+  <sheetFormatPr defaultRowHeight="14.45" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.25" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="14.05078125" customWidth="1"/>
-    <col min="2" max="3" width="22.1015625" customWidth="1"/>
+    <col min="1" max="1" width="14" customWidth="1"/>
+    <col min="2" max="3" width="22.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.4" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
-        <v>143</v>
-      </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="8"/>
-    </row>
-    <row r="2" ht="14.4" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="4"/>
-      <c r="B2" s="3" t="s">
+    <row r="1" ht="14.45" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="7"/>
+    </row>
+    <row r="2" ht="14.45" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="2"/>
+      <c r="B2" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="8" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" ht="14.4" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
+    <row r="3" ht="14.45" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="D3" s="5" t="str">
+      <c r="B3" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="D3" s="4" t="str">
         <f>IF(B3=C3,"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
+    <row r="4" ht="15" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="D4" s="4" t="str">
+      <c r="B4" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="D4" s="2" t="str">
         <f>IF(B4=C4,"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
+    <row r="5" ht="15" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="D5" s="4" t="str">
+      <c r="B5" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="D5" s="2" t="str">
         <f t="shared" ref="D5:D8" si="0">IF(B5=C5,"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
+    <row r="6" ht="15" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="D6" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>PASS</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
+      <c r="B6" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="D6" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+    </row>
+    <row r="7" ht="15" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>PASS</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
+      <c r="B7" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+    </row>
+    <row r="8" ht="15" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="D8" s="4" t="str">
+      <c r="B8" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="D8" s="2" t="str">
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
@@ -4073,12 +4073,12 @@
     <mergeCell ref="A1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="D3:D8">
-    <cfRule type="cellIs" dxfId="48" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="50" priority="2" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:D8">
-    <cfRule type="cellIs" dxfId="49" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="51" priority="1" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4095,119 +4095,119 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.55" customHeight="1"/>
+  <sheetFormatPr defaultRowHeight="14.45" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.25" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="14.05078125" customWidth="1"/>
-    <col min="2" max="2" width="52.3125" customWidth="1"/>
-    <col min="3" max="3" width="40.41796875" customWidth="1"/>
+    <col min="1" max="1" width="14" customWidth="1"/>
+    <col min="2" max="2" width="52.28515625" customWidth="1"/>
+    <col min="3" max="3" width="40.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.4" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
-        <v>149</v>
-      </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="8"/>
-    </row>
-    <row r="2" ht="14.4" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="4"/>
-      <c r="B2" s="3" t="s">
+    <row r="1" ht="14.45" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="7"/>
+    </row>
+    <row r="2" ht="14.45" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="2"/>
+      <c r="B2" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="8" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" ht="14.4" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
+    <row r="3" ht="14.45" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="D3" s="5" t="str">
+      <c r="B3" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="D3" s="4" t="str">
         <f>IF(B3=C3,"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
+    <row r="4" ht="15" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="D4" s="4" t="str">
+      <c r="B4" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="D4" s="2" t="str">
         <f>IF(B4=C4,"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
+    <row r="5" ht="15" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" s="4" t="str">
+      <c r="B5" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" s="2" t="str">
         <f t="shared" ref="D5:D8" si="0">IF(B5=C5,"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
+    <row r="6" ht="15" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>PASS</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
+      <c r="B6" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+    </row>
+    <row r="7" ht="15" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>PASS</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
+      <c r="B7" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+    </row>
+    <row r="8" ht="15" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D8" s="4" t="str">
+      <c r="D8" s="2" t="str">
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
@@ -4217,12 +4217,12 @@
     <mergeCell ref="A1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="D3:D8">
-    <cfRule type="cellIs" dxfId="50" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="52" priority="2" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:D8">
-    <cfRule type="cellIs" dxfId="51" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="53" priority="1" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4239,118 +4239,118 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.55" customHeight="1"/>
+  <sheetFormatPr defaultRowHeight="14.45" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.25" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="17.26171875" customWidth="1"/>
-    <col min="2" max="3" width="52.3125" customWidth="1"/>
+    <col min="1" max="1" width="17.28515625" customWidth="1"/>
+    <col min="2" max="3" width="52.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.4" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-    </row>
-    <row r="2" ht="14.4" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="4"/>
-      <c r="B2" s="11" t="s">
+    <row r="1" ht="14.45" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" ht="14.45" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="2"/>
+      <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="D2" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" ht="14.4" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
+    <row r="3" ht="14.45" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="D3" s="5" t="str">
+      <c r="B3" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="D3" s="4" t="str">
         <f>IF(B3=C3,"PASS","FAIL")</f>
         <v>FAIL</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
+    <row r="4" ht="15" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="D4" s="4" t="str">
+      <c r="B4" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="D4" s="2" t="str">
         <f>IF(B4=C4,"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
+    <row r="5" ht="15" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="D5" s="4" t="str">
+      <c r="B5" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="D5" s="2" t="str">
         <f t="shared" ref="D5:D8" si="0">IF(B5=C5,"PASS","FAIL")</f>
         <v>FAIL</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
+    <row r="6" ht="15" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="D6" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>PASS</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
+      <c r="B6" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="D6" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+    </row>
+    <row r="7" ht="15" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="D7" s="4" t="str">
+      <c r="B7" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="D7" s="2" t="str">
         <f t="shared" si="0"/>
         <v>FAIL</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
+    <row r="8" ht="15" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D8" s="4" t="str">
+      <c r="B8" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D8" s="2" t="str">
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
@@ -4360,12 +4360,12 @@
     <mergeCell ref="A1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="D3:D8">
-    <cfRule type="cellIs" dxfId="52" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="54" priority="2" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:D8">
-    <cfRule type="cellIs" dxfId="53" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="55" priority="1" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4382,119 +4382,119 @@
       <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.55" customHeight="1"/>
+  <sheetFormatPr defaultRowHeight="14.45" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.25" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="14.05078125" customWidth="1"/>
-    <col min="2" max="2" width="52.3125" customWidth="1"/>
-    <col min="3" max="3" width="33.83984375" customWidth="1"/>
+    <col min="1" max="1" width="14" customWidth="1"/>
+    <col min="2" max="2" width="52.28515625" customWidth="1"/>
+    <col min="3" max="3" width="33.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
+      <c r="A1" s="9" t="s">
+        <v>166</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="4"/>
-      <c r="B2" s="11" t="s">
+      <c r="A2" s="2"/>
+      <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="D2" s="3" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="D3" s="5" t="str">
+      <c r="B3" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="D3" s="4" t="str">
         <f>IF(B3=C3,"PASS","FAIL")</f>
         <v>FAIL</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="D4" s="4" t="str">
+      <c r="B4" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="D4" s="2" t="str">
         <f>IF(B4=C4,"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="D5" s="4" t="str">
+      <c r="B5" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="D5" s="2" t="str">
         <f t="shared" ref="D5:D8" si="0">IF(B5=C5,"PASS","FAIL")</f>
         <v>FAIL</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="D6" s="4" t="str">
+      <c r="B6" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="D6" s="2" t="str">
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="D7" s="4" t="str">
+      <c r="B7" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="D7" s="2" t="str">
         <f t="shared" si="0"/>
         <v>FAIL</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D8" s="4" t="str">
+      <c r="B8" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D8" s="2" t="str">
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
@@ -4504,12 +4504,12 @@
     <mergeCell ref="A1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="D3:D8">
-    <cfRule type="cellIs" dxfId="54" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="56" priority="2" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:D8">
-    <cfRule type="cellIs" dxfId="55" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="57" priority="1" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4524,119 +4524,119 @@
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.55" customHeight="1"/>
+  <sheetFormatPr defaultRowHeight="14.45" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.25" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="14.05078125" customWidth="1"/>
-    <col min="2" max="2" width="52.3125" customWidth="1"/>
-    <col min="3" max="3" width="33.83984375" customWidth="1"/>
+    <col min="1" max="1" width="14" customWidth="1"/>
+    <col min="2" max="2" width="52.28515625" customWidth="1"/>
+    <col min="3" max="3" width="33.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
+      <c r="A1" s="9" t="s">
+        <v>167</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="4"/>
-      <c r="B2" s="11" t="s">
+      <c r="A2" s="2"/>
+      <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="D2" s="3" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="D3" s="5" t="str">
+      <c r="B3" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="D3" s="4" t="str">
         <f>IF(B3=C3,"PASS","FAIL")</f>
         <v>FAIL</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="D4" s="4" t="str">
+      <c r="B4" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="D4" s="2" t="str">
         <f>IF(B4=C4,"PASS","FAIL")</f>
         <v>FAIL</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="D5" s="4" t="str">
+      <c r="B5" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="D5" s="2" t="str">
         <f t="shared" ref="D5:D8" si="0">IF(B5=C5,"PASS","FAIL")</f>
         <v>FAIL</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="D6" s="4" t="str">
+      <c r="B6" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="D6" s="2" t="str">
         <f t="shared" si="0"/>
         <v>FAIL</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D7" s="4" t="str">
+      <c r="B7" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D7" s="2" t="str">
         <f t="shared" si="0"/>
         <v>FAIL</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="D8" s="4" t="str">
+      <c r="B8" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="D8" s="2" t="str">
         <f t="shared" si="0"/>
         <v>FAIL</v>
       </c>
@@ -4646,12 +4646,12 @@
     <mergeCell ref="A1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="D3:D8">
-    <cfRule type="cellIs" dxfId="56" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="58" priority="2" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:D8">
-    <cfRule type="cellIs" dxfId="57" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="59" priority="1" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4668,118 +4668,118 @@
       <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.55" customHeight="1"/>
+  <sheetFormatPr defaultRowHeight="14.45" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.25" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="18.26171875" customWidth="1"/>
-    <col min="2" max="3" width="32.3125" customWidth="1"/>
+    <col min="1" max="1" width="18.28515625" customWidth="1"/>
+    <col min="2" max="3" width="32.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.4" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+    <row r="1" ht="14.45" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="7"/>
+    </row>
+    <row r="2" ht="14.45" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="2"/>
+      <c r="B2" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" ht="14.45" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="D3" s="4" t="str">
+        <f>IF(B3=C3,"PASS","FAIL")</f>
+        <v>PASS</v>
+      </c>
+    </row>
+    <row r="4" ht="15" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="D4" s="2" t="str">
+        <f>IF(B4=C4,"PASS","FAIL")</f>
+        <v>PASS</v>
+      </c>
+    </row>
+    <row r="5" ht="15" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="D5" s="2" t="str">
+        <f t="shared" ref="D5:D8" si="0">IF(B5=C5,"PASS","FAIL")</f>
+        <v>PASS</v>
+      </c>
+    </row>
+    <row r="6" ht="15" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="D6" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+    </row>
+    <row r="7" ht="15" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="D7" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>FAIL</v>
+      </c>
+    </row>
+    <row r="8" ht="15" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="8"/>
-    </row>
-    <row r="2" ht="14.4" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="4"/>
-      <c r="B2" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" ht="14.4" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="C3" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D3" s="5" t="str">
-        <f>IF(B3=C3,"PASS","FAIL")</f>
-        <v>PASS</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="C4" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="D4" s="4" t="str">
-        <f>IF(B4=C4,"PASS","FAIL")</f>
-        <v>PASS</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="D5" s="4" t="str">
-        <f t="shared" ref="D5:D8" si="0">IF(B5=C5,"PASS","FAIL")</f>
-        <v>PASS</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="C6" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="D6" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>PASS</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="C7" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="D7" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>PASS</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="C8" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="D8" s="4" t="str">
+      <c r="C8" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" s="2" t="str">
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
@@ -4789,12 +4789,12 @@
     <mergeCell ref="A1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="D3:D8">
-    <cfRule type="cellIs" dxfId="4" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="2" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:D8">
-    <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="1" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4809,119 +4809,119 @@
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.55" customHeight="1"/>
+  <sheetFormatPr defaultRowHeight="14.45" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.25" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="14.05078125" customWidth="1"/>
-    <col min="2" max="2" width="52.3125" customWidth="1"/>
-    <col min="3" max="3" width="33.83984375" customWidth="1"/>
+    <col min="1" max="1" width="14" customWidth="1"/>
+    <col min="2" max="2" width="52.28515625" customWidth="1"/>
+    <col min="3" max="3" width="33.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
+      <c r="A1" s="9" t="s">
+        <v>172</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="4"/>
-      <c r="B2" s="11" t="s">
+      <c r="A2" s="2"/>
+      <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="D2" s="3" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>168</v>
-      </c>
-      <c r="D3" s="5" t="str">
+      <c r="B3" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="D3" s="4" t="str">
         <f>IF(B3=C3,"PASS","FAIL")</f>
         <v>FAIL</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="D4" s="4" t="str">
+      <c r="B4" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="D4" s="2" t="str">
         <f>IF(B4=C4,"PASS","FAIL")</f>
         <v>FAIL</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>170</v>
-      </c>
-      <c r="D5" s="4" t="str">
+      <c r="B5" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="D5" s="2" t="str">
         <f t="shared" ref="D5:D8" si="0">IF(B5=C5,"PASS","FAIL")</f>
         <v>FAIL</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>171</v>
-      </c>
-      <c r="D6" s="4" t="str">
+      <c r="B6" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="D6" s="2" t="str">
         <f t="shared" si="0"/>
         <v>FAIL</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="D7" s="4" t="str">
+      <c r="B7" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="2" t="str">
         <f t="shared" si="0"/>
         <v>FAIL</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="D8" s="4" t="str">
+      <c r="B8" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="D8" s="2" t="str">
         <f t="shared" si="0"/>
         <v>FAIL</v>
       </c>
@@ -4931,12 +4931,12 @@
     <mergeCell ref="A1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="D3:D8">
-    <cfRule type="cellIs" dxfId="58" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="60" priority="2" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:D8">
-    <cfRule type="cellIs" dxfId="59" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="61" priority="1" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4951,119 +4951,119 @@
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.55" customHeight="1"/>
+  <sheetFormatPr defaultRowHeight="14.45" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.25" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="14.05078125" customWidth="1"/>
-    <col min="2" max="2" width="52.3125" customWidth="1"/>
-    <col min="3" max="3" width="33.83984375" customWidth="1"/>
+    <col min="1" max="1" width="14" customWidth="1"/>
+    <col min="2" max="2" width="52.28515625" customWidth="1"/>
+    <col min="3" max="3" width="33.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
+      <c r="A1" s="9" t="s">
+        <v>177</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="4"/>
-      <c r="B2" s="11" t="s">
+      <c r="A2" s="2"/>
+      <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="D2" s="3" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="D3" s="5" t="str">
+      <c r="B3" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="D3" s="4" t="str">
         <f>IF(B3=C3,"PASS","FAIL")</f>
         <v>FAIL</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="D4" s="4" t="str">
+      <c r="B4" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="D4" s="2" t="str">
         <f>IF(B4=C4,"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="D5" s="4" t="str">
+      <c r="B5" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="D5" s="2" t="str">
         <f t="shared" ref="D5:D8" si="0">IF(B5=C5,"PASS","FAIL")</f>
         <v>FAIL</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="D6" s="4" t="str">
+      <c r="B6" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="D6" s="2" t="str">
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="D7" s="4" t="str">
+      <c r="B7" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="D7" s="2" t="str">
         <f t="shared" si="0"/>
         <v>FAIL</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D8" s="4" t="str">
+      <c r="B8" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D8" s="2" t="str">
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
@@ -5073,12 +5073,12 @@
     <mergeCell ref="A1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="D3:D8">
-    <cfRule type="cellIs" dxfId="60" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="62" priority="2" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:D8">
-    <cfRule type="cellIs" dxfId="61" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="63" priority="1" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5093,119 +5093,119 @@
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.55" customHeight="1"/>
+  <sheetFormatPr defaultRowHeight="14.45" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.25" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="14.05078125" customWidth="1"/>
-    <col min="2" max="2" width="52.3125" customWidth="1"/>
-    <col min="3" max="3" width="33.83984375" customWidth="1"/>
+    <col min="1" max="1" width="14" customWidth="1"/>
+    <col min="2" max="2" width="52.28515625" customWidth="1"/>
+    <col min="3" max="3" width="33.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
+      <c r="A1" s="9" t="s">
+        <v>178</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="4"/>
-      <c r="B2" s="11" t="s">
+      <c r="A2" s="2"/>
+      <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="D2" s="3" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>174</v>
-      </c>
-      <c r="D3" s="5" t="str">
+      <c r="B3" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="D3" s="4" t="str">
         <f>IF(B3=C3,"PASS","FAIL")</f>
         <v>FAIL</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="D4" s="4" t="str">
+      <c r="B4" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="D4" s="2" t="str">
         <f>IF(B4=C4,"PASS","FAIL")</f>
         <v>FAIL</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="D5" s="4" t="str">
+      <c r="B5" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="D5" s="2" t="str">
         <f t="shared" ref="D5:D8" si="0">IF(B5=C5,"PASS","FAIL")</f>
         <v>FAIL</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="D6" s="4" t="str">
+      <c r="B6" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="D6" s="2" t="str">
         <f t="shared" si="0"/>
         <v>FAIL</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" s="4" t="str">
+      <c r="B7" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7" s="2" t="str">
         <f t="shared" si="0"/>
         <v>FAIL</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="D8" s="4" t="str">
+      <c r="B8" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D8" s="2" t="str">
         <f t="shared" si="0"/>
         <v>FAIL</v>
       </c>
@@ -5215,12 +5215,12 @@
     <mergeCell ref="A1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="D3:D8">
-    <cfRule type="cellIs" dxfId="62" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="64" priority="2" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:D8">
-    <cfRule type="cellIs" dxfId="63" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="65" priority="1" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5237,140 +5237,140 @@
       <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.55" customHeight="1"/>
+  <sheetFormatPr defaultRowHeight="14.45" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.25" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="14.05078125" customWidth="1"/>
-    <col min="2" max="2" width="52.3125" customWidth="1"/>
-    <col min="3" max="3" width="33.83984375" customWidth="1"/>
+    <col min="1" max="1" width="14" customWidth="1"/>
+    <col min="2" max="2" width="52.28515625" customWidth="1"/>
+    <col min="3" max="3" width="33.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
+      <c r="A1" s="9" t="s">
+        <v>183</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="4"/>
-      <c r="B2" s="11" t="s">
+      <c r="A2" s="2"/>
+      <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="D2" s="3" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="D3" s="5" t="str">
+      <c r="B3" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="D3" s="4" t="str">
         <f>IF(B3=C3,"PASS","FAIL")</f>
         <v>FAIL</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="D4" s="4" t="str">
+      <c r="B4" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="D4" s="2" t="str">
         <f>IF(B4=C4,"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="D5" s="4" t="str">
+      <c r="B5" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="D5" s="2" t="str">
         <f t="shared" ref="D5:D8" si="0">IF(B5=C5,"PASS","FAIL")</f>
         <v>FAIL</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="D6" s="4" t="str">
+      <c r="B6" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="D6" s="2" t="str">
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="D7" s="4" t="str">
+      <c r="B7" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="D7" s="2" t="str">
         <f t="shared" si="0"/>
         <v>FAIL</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D8" s="4" t="str">
+      <c r="B8" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D8" s="2" t="str">
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="4"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="D3:D8">
-    <cfRule type="cellIs" dxfId="64" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="66" priority="2" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:D8">
-    <cfRule type="cellIs" dxfId="65" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="67" priority="1" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5385,119 +5385,119 @@
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.55" customHeight="1"/>
+  <sheetFormatPr defaultRowHeight="14.45" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.25" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="14.05078125" customWidth="1"/>
-    <col min="2" max="2" width="52.3125" customWidth="1"/>
-    <col min="3" max="3" width="33.83984375" customWidth="1"/>
+    <col min="1" max="1" width="14" customWidth="1"/>
+    <col min="2" max="2" width="52.28515625" customWidth="1"/>
+    <col min="3" max="3" width="33.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
+      <c r="A1" s="9" t="s">
+        <v>184</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="4"/>
-      <c r="B2" s="11" t="s">
+      <c r="A2" s="2"/>
+      <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="D2" s="3" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="D3" s="5" t="str">
+      <c r="B3" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="D3" s="4" t="str">
         <f>IF(B3=C3,"PASS","FAIL")</f>
         <v>FAIL</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="D4" s="4" t="str">
+      <c r="B4" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="D4" s="2" t="str">
         <f>IF(B4=C4,"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="D5" s="4" t="str">
+      <c r="B5" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="D5" s="2" t="str">
         <f t="shared" ref="D5:D8" si="0">IF(B5=C5,"PASS","FAIL")</f>
         <v>FAIL</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="D6" s="4" t="str">
+      <c r="B6" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="D6" s="2" t="str">
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="D7" s="4" t="str">
+      <c r="B7" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="D7" s="2" t="str">
         <f t="shared" si="0"/>
         <v>FAIL</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D8" s="4" t="str">
+      <c r="B8" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D8" s="2" t="str">
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
@@ -5507,12 +5507,12 @@
     <mergeCell ref="A1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="D3:D8">
-    <cfRule type="cellIs" dxfId="66" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="68" priority="2" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:D8">
-    <cfRule type="cellIs" dxfId="67" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="69" priority="1" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5529,119 +5529,119 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.55" customHeight="1"/>
+  <sheetFormatPr defaultRowHeight="14.45" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.25" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="14.05078125" customWidth="1"/>
-    <col min="2" max="2" width="52.3125" customWidth="1"/>
-    <col min="3" max="3" width="33.83984375" customWidth="1"/>
+    <col min="1" max="1" width="14" customWidth="1"/>
+    <col min="2" max="2" width="52.28515625" customWidth="1"/>
+    <col min="3" max="3" width="33.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
+      <c r="A1" s="9" t="s">
+        <v>185</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="4"/>
-      <c r="B2" s="11" t="s">
+      <c r="A2" s="2"/>
+      <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="D2" s="3" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="D3" s="5" t="str">
+      <c r="B3" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="D3" s="4" t="str">
         <f>IF(B3=C3,"PASS","FAIL")</f>
         <v>FAIL</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="D4" s="4" t="str">
+      <c r="B4" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="D4" s="2" t="str">
         <f>IF(B4=C4,"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="D5" s="4" t="str">
+      <c r="B5" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="D5" s="2" t="str">
         <f t="shared" ref="D5:D8" si="0">IF(B5=C5,"PASS","FAIL")</f>
         <v>FAIL</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="D6" s="4" t="str">
+      <c r="B6" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="D6" s="2" t="str">
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="D7" s="4" t="str">
+      <c r="B7" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="D7" s="2" t="str">
         <f t="shared" si="0"/>
         <v>FAIL</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D8" s="4" t="str">
+      <c r="B8" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D8" s="2" t="str">
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
@@ -5651,12 +5651,12 @@
     <mergeCell ref="A1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="D3:D8">
-    <cfRule type="cellIs" dxfId="68" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="70" priority="2" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:D8">
-    <cfRule type="cellIs" dxfId="69" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="71" priority="1" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5673,118 +5673,118 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.55" customHeight="1"/>
+  <sheetFormatPr defaultRowHeight="14.45" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.25" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="14.05078125" customWidth="1"/>
-    <col min="2" max="3" width="37.3125" customWidth="1"/>
+    <col min="1" max="1" width="14" customWidth="1"/>
+    <col min="2" max="3" width="37.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.4" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-    </row>
-    <row r="2" ht="14.4" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="4"/>
-      <c r="B2" s="3" t="s">
+    <row r="1" ht="14.45" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" ht="14.45" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="2"/>
+      <c r="B2" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="8" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" ht="14.4" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
+    <row r="3" ht="14.45" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="D3" s="5" t="str">
+      <c r="B3" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D3" s="4" t="str">
         <f>IF(B3=C3,"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
+    <row r="4" ht="15" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="D4" s="4" t="str">
+      <c r="B4" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D4" s="2" t="str">
         <f>IF(B4=C4,"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
+    <row r="5" ht="15" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="D5" s="4" t="str">
+      <c r="B5" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D5" s="2" t="str">
         <f t="shared" ref="D5:D8" si="0">IF(B5=C5,"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
+    <row r="6" ht="15" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="D6" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>PASS</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
+      <c r="B6" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D6" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+    </row>
+    <row r="7" ht="15" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="D7" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>PASS</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
+      <c r="B7" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D7" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+    </row>
+    <row r="8" ht="15" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="D8" s="4" t="str">
+      <c r="B8" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" s="2" t="str">
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
@@ -5794,12 +5794,12 @@
     <mergeCell ref="A1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="D3:D8">
-    <cfRule type="cellIs" dxfId="6" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="2" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:D8">
-    <cfRule type="cellIs" dxfId="7" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="1" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5816,118 +5816,118 @@
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.55" customHeight="1"/>
+  <sheetFormatPr defaultRowHeight="14.45" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.25" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="18.15625" customWidth="1"/>
-    <col min="2" max="3" width="10.7890625" customWidth="1"/>
+    <col min="1" max="1" width="18.140625" customWidth="1"/>
+    <col min="2" max="3" width="10.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.4" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-    </row>
-    <row r="2" ht="14.4" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="4"/>
-      <c r="B2" s="3" t="s">
+    <row r="1" ht="14.45" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" ht="14.45" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="2"/>
+      <c r="B2" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="8" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" ht="14.4" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
+    <row r="3" ht="14.45" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="D3" s="5" t="str">
+      <c r="B3" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D3" s="4" t="str">
         <f>IF(B3=C3,"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
+    <row r="4" ht="15" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="D4" s="4" t="str">
+      <c r="B4" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D4" s="2" t="str">
         <f>IF(B4=C4,"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
+    <row r="5" ht="15" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="D5" s="4" t="str">
+      <c r="B5" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D5" s="2" t="str">
         <f t="shared" ref="D5:D8" si="0">IF(B5=C5,"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
+    <row r="6" ht="15" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="D6" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>PASS</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
+      <c r="B6" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D6" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+    </row>
+    <row r="7" ht="15" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="D7" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>PASS</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
+      <c r="B7" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D7" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+    </row>
+    <row r="8" ht="15" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="D8" s="4" t="str">
+      <c r="B8" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D8" s="2" t="str">
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
@@ -5937,12 +5937,12 @@
     <mergeCell ref="A1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="D3:D8">
-    <cfRule type="cellIs" dxfId="8" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="2" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:D8">
-    <cfRule type="cellIs" dxfId="9" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="1" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5956,124 +5956,124 @@
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.55" customHeight="1"/>
+  <sheetFormatPr defaultRowHeight="14.45" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.25" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="14.05078125" customWidth="1"/>
-    <col min="2" max="2" width="52.3125" customWidth="1"/>
-    <col min="3" max="3" width="33.83984375" customWidth="1"/>
+    <col min="1" max="1" width="14" customWidth="1"/>
+    <col min="2" max="2" width="52.28515625" customWidth="1"/>
+    <col min="3" max="3" width="33.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.4" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
-        <v>181</v>
-      </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-    </row>
-    <row r="2" ht="28.8" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="4"/>
-      <c r="B2" s="11" t="s">
+    <row r="1" ht="14.45" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+    </row>
+    <row r="2" ht="28.9" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="2"/>
+      <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="D2" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
+    <row r="3" ht="15" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>182</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>182</v>
-      </c>
-      <c r="D3" s="5" t="str">
+      <c r="B3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="4" t="str">
         <f>IF(B3=C3,"PASS","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
+        <v>PASS</v>
+      </c>
+    </row>
+    <row r="4" ht="15" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>183</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>183</v>
-      </c>
-      <c r="D4" s="4" t="str">
+      <c r="B4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="2" t="str">
         <f>IF(B4=C4,"PASS","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
+        <v>PASS</v>
+      </c>
+    </row>
+    <row r="5" ht="15" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="D5" s="4" t="str">
+      <c r="B5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="2" t="str">
         <f t="shared" ref="D5:D8" si="0">IF(B5=C5,"PASS","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
+        <v>PASS</v>
+      </c>
+    </row>
+    <row r="6" ht="15" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="D6" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>FAIL</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
+      <c r="B6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+    </row>
+    <row r="7" ht="15" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="D7" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>FAIL</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
+      <c r="B7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+    </row>
+    <row r="8" ht="15" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D8" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>FAIL</v>
+      <c r="D8" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
       </c>
     </row>
   </sheetData>
@@ -6081,12 +6081,12 @@
     <mergeCell ref="A1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="D3:D8">
-    <cfRule type="cellIs" dxfId="70" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:D8">
-    <cfRule type="cellIs" dxfId="71" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6103,119 +6103,119 @@
       <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.55" customHeight="1"/>
+  <sheetFormatPr defaultRowHeight="14.45" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.25" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="21.3671875" customWidth="1"/>
-    <col min="2" max="2" width="43.7890625" customWidth="1"/>
-    <col min="3" max="3" width="35.62890625" customWidth="1"/>
+    <col min="1" max="1" width="21.42578125" customWidth="1"/>
+    <col min="2" max="2" width="43.85546875" customWidth="1"/>
+    <col min="3" max="3" width="35.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.4" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="8"/>
-    </row>
-    <row r="2" ht="14.4" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="4"/>
-      <c r="B2" s="3" t="s">
+    <row r="1" ht="14.45" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="7"/>
+    </row>
+    <row r="2" ht="14.45" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="2"/>
+      <c r="B2" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="8" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" ht="14.4" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
+    <row r="3" ht="14.45" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="D3" s="5" t="str">
+      <c r="B3" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D3" s="4" t="str">
         <f>IF(B3=C3,"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
+    <row r="4" ht="15" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="D4" s="4" t="str">
+      <c r="B4" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D4" s="2" t="str">
         <f>IF(B4=C4,"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
+    <row r="5" ht="15" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="D5" s="4" t="str">
+      <c r="B5" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D5" s="2" t="str">
         <f t="shared" ref="D5:D8" si="0">IF(B5=C5,"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
+    <row r="6" ht="15" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="D6" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>PASS</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
+      <c r="B6" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D6" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+    </row>
+    <row r="7" ht="15" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="D7" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>PASS</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
+      <c r="B7" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D7" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+    </row>
+    <row r="8" ht="15" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="D8" s="4" t="str">
+      <c r="B8" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" s="2" t="str">
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
@@ -6225,12 +6225,12 @@
     <mergeCell ref="A1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="D3:D8">
-    <cfRule type="cellIs" dxfId="10" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="2" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:D8">
-    <cfRule type="cellIs" dxfId="11" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="1" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6247,118 +6247,118 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.55" customHeight="1"/>
+  <sheetFormatPr defaultRowHeight="14.45" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.25" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="14.05078125" customWidth="1"/>
-    <col min="2" max="3" width="32.5234375" customWidth="1"/>
+    <col min="1" max="1" width="14" customWidth="1"/>
+    <col min="2" max="3" width="32.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.4" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="8"/>
-    </row>
-    <row r="2" ht="14.4" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="4"/>
-      <c r="B2" s="3" t="s">
+    <row r="1" ht="14.45" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="7"/>
+    </row>
+    <row r="2" ht="14.45" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="2"/>
+      <c r="B2" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="8" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" ht="14.4" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
+    <row r="3" ht="14.45" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="D3" s="5" t="str">
+      <c r="B3" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D3" s="4" t="str">
         <f>IF(B3=C3,"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
+    <row r="4" ht="15" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="D4" s="4" t="str">
+      <c r="B4" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D4" s="2" t="str">
         <f>IF(B4=C4,"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
+    <row r="5" ht="15" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="D5" s="4" t="str">
+      <c r="B5" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D5" s="2" t="str">
         <f t="shared" ref="D5:D8" si="0">IF(B5=C5,"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
+    <row r="6" ht="15" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="D6" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>PASS</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
+      <c r="B6" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D6" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+    </row>
+    <row r="7" ht="15" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>PASS</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
+      <c r="B7" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+    </row>
+    <row r="8" ht="15" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="D8" s="4" t="str">
+      <c r="B8" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D8" s="2" t="str">
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
@@ -6368,12 +6368,12 @@
     <mergeCell ref="A1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="D3:D8">
-    <cfRule type="cellIs" dxfId="12" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="2" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:D8">
-    <cfRule type="cellIs" dxfId="13" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="1" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6387,123 +6387,123 @@
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
-      <selection activeCell="L29" sqref="L29"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.55" customHeight="1"/>
+  <sheetFormatPr defaultRowHeight="14.45" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.25" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="14.7890625" customWidth="1"/>
-    <col min="2" max="3" width="33.9453125" customWidth="1"/>
+    <col min="1" max="1" width="14.85546875" customWidth="1"/>
+    <col min="2" max="3" width="34" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.4" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="8"/>
-    </row>
-    <row r="2" ht="14.4" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="4"/>
-      <c r="B2" s="3" t="s">
+    <row r="1" ht="14.45" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="7"/>
+    </row>
+    <row r="2" ht="14.45" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="2"/>
+      <c r="B2" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="8" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" ht="14.4" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
+    <row r="3" ht="14.45" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="D3" s="5" t="str">
+      <c r="B3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="4" t="str">
         <f>IF(B3=C3,"PASS","FAIL")</f>
+        <v>PASS</v>
+      </c>
+    </row>
+    <row r="4" ht="15" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="2" t="str">
+        <f>IF(B4=C4,"PASS","FAIL")</f>
+        <v>PASS</v>
+      </c>
+    </row>
+    <row r="5" ht="15" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="2" t="str">
+        <f t="shared" ref="D5:D8" si="0">IF(B5=C5,"PASS","FAIL")</f>
+        <v>PASS</v>
+      </c>
+    </row>
+    <row r="6" ht="15" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+    </row>
+    <row r="7" ht="15" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" s="2" t="str">
+        <f t="shared" si="0"/>
         <v>FAIL</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="D4" s="4" t="str">
-        <f>IF(B4=C4,"PASS","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="D5" s="4" t="str">
-        <f t="shared" ref="D5:D8" si="0">IF(B5=C5,"PASS","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="D6" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>FAIL</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="D7" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>FAIL</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
+    <row r="8" ht="15" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="D8" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>FAIL</v>
+      <c r="B8" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
       </c>
     </row>
   </sheetData>
@@ -6511,12 +6511,12 @@
     <mergeCell ref="A1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="D3:D8">
-    <cfRule type="cellIs" dxfId="14" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:D8">
-    <cfRule type="cellIs" dxfId="15" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6533,120 +6533,120 @@
       <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.55" customHeight="1"/>
+  <sheetFormatPr defaultRowHeight="14.45" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.25" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="16.734375" customWidth="1"/>
-    <col min="2" max="2" width="25.578125" customWidth="1"/>
-    <col min="3" max="3" width="23.68359375" customWidth="1"/>
-    <col min="4" max="4" width="5.7890625" customWidth="1"/>
+    <col min="1" max="1" width="16.7109375" customWidth="1"/>
+    <col min="2" max="2" width="25.5703125" customWidth="1"/>
+    <col min="3" max="3" width="23.7109375" customWidth="1"/>
+    <col min="4" max="4" width="5.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.4" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="8"/>
-    </row>
-    <row r="2" ht="14.4" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="4"/>
-      <c r="B2" s="3" t="s">
+    <row r="1" ht="14.45" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="7"/>
+    </row>
+    <row r="2" ht="14.45" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="2"/>
+      <c r="B2" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="8" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" ht="14.4" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
+    <row r="3" ht="14.45" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="D3" s="5" t="str">
+      <c r="B3" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D3" s="4" t="str">
         <f>IF(B3=C3,"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
+    <row r="4" ht="15" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="D4" s="4" t="str">
+      <c r="B4" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D4" s="2" t="str">
         <f>IF(B4=C4,"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
+    <row r="5" ht="15" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="D5" s="4" t="str">
+      <c r="B5" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D5" s="2" t="str">
         <f t="shared" ref="D5:D8" si="0">IF(B5=C5,"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
+    <row r="6" ht="15" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="D6" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>PASS</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
+      <c r="B6" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D6" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+    </row>
+    <row r="7" ht="15" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="D7" s="4" t="str">
+      <c r="B7" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="2" t="str">
         <f t="shared" si="0"/>
         <v>FAIL</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
+    <row r="8" ht="15" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="D8" s="4" t="str">
+      <c r="B8" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" s="2" t="str">
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
@@ -6656,12 +6656,12 @@
     <mergeCell ref="A1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="D3:D8">
-    <cfRule type="cellIs" dxfId="16" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="2" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:D8">
-    <cfRule type="cellIs" dxfId="17" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="1" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/data/landingPage.xlsx
+++ b/data/landingPage.xlsx
@@ -4,99 +4,153 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13992" firstSheet="23" activeTab="35"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet sheetId="1" name="Sheet1" state="visible" r:id="rId4"/>
-    <sheet sheetId="2" name="Sheet2" state="visible" r:id="rId5"/>
-    <sheet sheetId="3" name="Sheet3" state="visible" r:id="rId6"/>
-    <sheet sheetId="4" name="Sheet4" state="visible" r:id="rId7"/>
-    <sheet sheetId="5" name="Sheet5" state="visible" r:id="rId8"/>
-    <sheet sheetId="6" name="Sheet6" state="visible" r:id="rId9"/>
-    <sheet sheetId="7" name="Sheet7" state="visible" r:id="rId10"/>
-    <sheet sheetId="8" name="Sheet8" state="visible" r:id="rId11"/>
-    <sheet sheetId="9" name="Sheet9" state="visible" r:id="rId12"/>
-    <sheet sheetId="10" name="Sheet10" state="visible" r:id="rId13"/>
-    <sheet sheetId="11" name="Sheet11" state="visible" r:id="rId14"/>
-    <sheet sheetId="12" name="Sheet12" state="visible" r:id="rId15"/>
-    <sheet sheetId="13" name="Sheet13" state="visible" r:id="rId16"/>
-    <sheet sheetId="14" name="Sheet14" state="visible" r:id="rId17"/>
-    <sheet sheetId="15" name="Sheet15" state="visible" r:id="rId18"/>
-    <sheet sheetId="16" name="Sheet16" state="visible" r:id="rId19"/>
-    <sheet sheetId="17" name="Sheet17" state="visible" r:id="rId20"/>
-    <sheet sheetId="18" name="Sheet18" state="visible" r:id="rId21"/>
-    <sheet sheetId="19" name="Sheet19" state="visible" r:id="rId22"/>
-    <sheet sheetId="20" name="Sheet20" state="visible" r:id="rId23"/>
-    <sheet sheetId="21" name="Sheet21" state="visible" r:id="rId24"/>
-    <sheet sheetId="22" name="Sheet22" state="visible" r:id="rId25"/>
-    <sheet sheetId="23" name="Sheet23" state="visible" r:id="rId26"/>
-    <sheet sheetId="24" name="Sheet24" state="visible" r:id="rId27"/>
-    <sheet sheetId="25" name="Sheet25" state="visible" r:id="rId28"/>
-    <sheet sheetId="26" name="Sheet26" state="visible" r:id="rId29"/>
-    <sheet sheetId="27" name="Sheet27" state="visible" r:id="rId30"/>
-    <sheet sheetId="28" name="Sheet28" state="visible" r:id="rId31"/>
-    <sheet sheetId="29" name="Sheet29" state="visible" r:id="rId32"/>
-    <sheet sheetId="30" name="Sheet30" state="visible" r:id="rId33"/>
-    <sheet sheetId="31" name="Sheet31" state="visible" r:id="rId34"/>
-    <sheet sheetId="32" name="Sheet32" state="visible" r:id="rId35"/>
-    <sheet sheetId="33" name="Sheet33" state="visible" r:id="rId36"/>
-    <sheet sheetId="34" name="Sheet34" state="visible" r:id="rId37"/>
-    <sheet sheetId="36" name="Sheet35" state="visible" r:id="rId38"/>
-    <sheet sheetId="51" name="Sheet36" state="visible" r:id="rId39"/>
+    <sheet sheetId="51" name="Sheet1" state="visible" r:id="rId4"/>
+    <sheet sheetId="8" name="Sheet2" state="visible" r:id="rId5"/>
+    <sheet sheetId="1" name="Sheet50" state="visible" r:id="rId6"/>
+    <sheet sheetId="2" name="Sheet51" state="visible" r:id="rId7"/>
+    <sheet sheetId="3" name="Sheet3" state="visible" r:id="rId8"/>
+    <sheet sheetId="4" name="Sheet4" state="visible" r:id="rId9"/>
+    <sheet sheetId="5" name="Sheet5" state="visible" r:id="rId10"/>
+    <sheet sheetId="6" name="Sheet6" state="visible" r:id="rId11"/>
+    <sheet sheetId="7" name="Sheet7" state="visible" r:id="rId12"/>
+    <sheet sheetId="9" name="Sheet9" state="visible" r:id="rId13"/>
+    <sheet sheetId="10" name="Sheet10" state="visible" r:id="rId14"/>
+    <sheet sheetId="11" name="Sheet11" state="visible" r:id="rId15"/>
+    <sheet sheetId="12" name="Sheet12" state="visible" r:id="rId16"/>
+    <sheet sheetId="13" name="Sheet13" state="visible" r:id="rId17"/>
+    <sheet sheetId="14" name="Sheet14" state="visible" r:id="rId18"/>
+    <sheet sheetId="15" name="Sheet15" state="visible" r:id="rId19"/>
+    <sheet sheetId="16" name="Sheet16" state="visible" r:id="rId20"/>
+    <sheet sheetId="17" name="Sheet17" state="visible" r:id="rId21"/>
+    <sheet sheetId="18" name="Sheet18" state="visible" r:id="rId22"/>
+    <sheet sheetId="19" name="Sheet19" state="visible" r:id="rId23"/>
+    <sheet sheetId="20" name="Sheet20" state="visible" r:id="rId24"/>
+    <sheet sheetId="21" name="Sheet21" state="visible" r:id="rId25"/>
+    <sheet sheetId="22" name="Sheet22" state="visible" r:id="rId26"/>
+    <sheet sheetId="23" name="Sheet23" state="visible" r:id="rId27"/>
+    <sheet sheetId="24" name="Sheet24" state="visible" r:id="rId28"/>
+    <sheet sheetId="25" name="Sheet25" state="visible" r:id="rId29"/>
+    <sheet sheetId="26" name="Sheet26" state="visible" r:id="rId30"/>
+    <sheet sheetId="27" name="Sheet27" state="visible" r:id="rId31"/>
+    <sheet sheetId="28" name="Sheet28" state="visible" r:id="rId32"/>
+    <sheet sheetId="29" name="Sheet29" state="visible" r:id="rId33"/>
+    <sheet sheetId="30" name="Sheet30" state="visible" r:id="rId34"/>
+    <sheet sheetId="31" name="Sheet31" state="visible" r:id="rId35"/>
+    <sheet sheetId="32" name="Sheet32" state="visible" r:id="rId36"/>
+    <sheet sheetId="33" name="Sheet33" state="visible" r:id="rId37"/>
+    <sheet sheetId="34" name="Sheet34" state="visible" r:id="rId38"/>
+    <sheet sheetId="36" name="Sheet35" state="visible" r:id="rId39"/>
   </sheets>
   <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="779" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="779" uniqueCount="190">
+  <si>
+    <t>GF61865001 - YOUR SODEXO RETIREMENT PLAN</t>
+  </si>
+  <si>
+    <t>Master Data</t>
+  </si>
+  <si>
+    <t>Actual Data</t>
+  </si>
+  <si>
+    <t>Result</t>
+  </si>
+  <si>
+    <t>Group Name</t>
+  </si>
+  <si>
+    <t>YOUR SODEXO RETIREMENT PLAN</t>
+  </si>
+  <si>
+    <t>Group Reference</t>
+  </si>
+  <si>
+    <t>GF61865001</t>
+  </si>
+  <si>
+    <t>Company Name</t>
+  </si>
+  <si>
+    <t>Sodexo Limited</t>
+  </si>
+  <si>
+    <t>Start Date</t>
+  </si>
+  <si>
+    <t>01/04/2012</t>
+  </si>
+  <si>
+    <t>Renewal Date</t>
+  </si>
+  <si>
+    <t>20/05/2023</t>
+  </si>
+  <si>
+    <t>Auto Enrol Date</t>
+  </si>
+  <si>
+    <t>01/01/2013</t>
+  </si>
+  <si>
+    <t>GF71965001 - SAINSBURY'S RETIREMENT SAVINGS PLAN</t>
+  </si>
+  <si>
+    <t>SAINSBURY'S RETIREMENT SAVINGS PLAN</t>
+  </si>
+  <si>
+    <t>GF71965001</t>
+  </si>
+  <si>
+    <t>J Sainsbury Plc</t>
+  </si>
+  <si>
+    <t>17/07/2012</t>
+  </si>
+  <si>
+    <t>18/04/2023</t>
+  </si>
+  <si>
+    <t>01/10/2012</t>
+  </si>
   <si>
     <t>GF15927001 - MITCHELLS &amp; BUTLERS PENSION PLAN</t>
   </si>
   <si>
-    <t>Master Data</t>
-  </si>
-  <si>
-    <t>Actual Data</t>
-  </si>
-  <si>
-    <t>Result</t>
-  </si>
-  <si>
-    <t>Group Name</t>
-  </si>
-  <si>
     <t>MITCHELLS &amp; BUTLERS PENSION PLAN</t>
   </si>
   <si>
-    <t>Group Reference</t>
+    <t>3,770</t>
   </si>
   <si>
     <t>GF15927001</t>
   </si>
   <si>
-    <t>Company Name</t>
+    <t>7,561</t>
   </si>
   <si>
     <t>Mitchells &amp; Butlers Plc</t>
   </si>
   <si>
-    <t>Start Date</t>
+    <t>316 (4%)</t>
   </si>
   <si>
     <t>01/02/2018</t>
   </si>
   <si>
-    <t>Renewal Date</t>
+    <t>230 (73%)</t>
   </si>
   <si>
     <t>05/04/2022</t>
   </si>
   <si>
-    <t>Auto Enrol Date</t>
-  </si>
-  <si>
-    <t>01/01/2013</t>
+    <t>20/05/2022</t>
   </si>
   <si>
     <t>GF06865001 - YOUR M &amp; S PENSION SAVING PLAN</t>
@@ -141,9 +195,6 @@
     <t>01/01/2023</t>
   </si>
   <si>
-    <t>01/10/2012</t>
-  </si>
-  <si>
     <t>GF32307001 - RBS GROUP RETIREMENT SAVINGS PLAN (GIB)</t>
   </si>
   <si>
@@ -213,27 +264,6 @@
     <t>01/05/2013</t>
   </si>
   <si>
-    <t>GF71965001 - SAINSBURY'S RETIREMENT SAVINGS PLAN</t>
-  </si>
-  <si>
-    <t>SAINSBURY'S RETIREMENT SAVINGS PLAN</t>
-  </si>
-  <si>
-    <t>GF71965001</t>
-  </si>
-  <si>
-    <t>J Sainsbury Plc</t>
-  </si>
-  <si>
-    <t>17/07/2012</t>
-  </si>
-  <si>
-    <t>18/04/2022</t>
-  </si>
-  <si>
-    <t>18/04/2023</t>
-  </si>
-  <si>
     <t>GF75755001 - SAINSBURY'S SIPP</t>
   </si>
   <si>
@@ -252,9 +282,6 @@
     <t>20/05/2021</t>
   </si>
   <si>
-    <t>20/05/2022</t>
-  </si>
-  <si>
     <t>GF90275001 - SAVE THE CHILDREN UK GROUP PERSONAL PENSION</t>
   </si>
   <si>
@@ -592,21 +619,6 @@
   </si>
   <si>
     <t>GF99556001 - THE NORCROS SECURITY PLAN</t>
-  </si>
-  <si>
-    <t>GF61865001 - YOUR SODEXO RETIREMENT PLAN</t>
-  </si>
-  <si>
-    <t>YOUR SODEXO RETIREMENT PLAN</t>
-  </si>
-  <si>
-    <t>GF61865001</t>
-  </si>
-  <si>
-    <t>Sodexo Limited</t>
-  </si>
-  <si>
-    <t>01/04/2012</t>
   </si>
 </sst>
 </file>
@@ -622,6 +634,12 @@
       <name val="Calibri"/>
     </font>
     <font>
+      <color rgb="FFC586C0"/>
+      <family val="3"/>
+      <sz val="12"/>
+      <name val="Consolas"/>
+    </font>
+    <font>
       <b/>
       <color theme="1"/>
       <family val="2"/>
@@ -634,12 +652,6 @@
       <scheme val="minor"/>
       <sz val="11"/>
       <name val="Calibri"/>
-    </font>
-    <font>
-      <color rgb="FFC586C0"/>
-      <family val="3"/>
-      <sz val="12"/>
-      <name val="Consolas"/>
     </font>
   </fonts>
   <fills count="2">
@@ -656,6 +668,15 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -710,48 +731,39 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1541,123 +1553,123 @@
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.55" customHeight="1"/>
+  <sheetFormatPr defaultRowHeight="14.45" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.25" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="14.05078125" customWidth="1"/>
-    <col min="2" max="2" width="37.578125" customWidth="1"/>
-    <col min="3" max="3" width="31.20703125" customWidth="1"/>
-    <col min="4" max="4" width="19.3671875" customWidth="1"/>
+    <col min="1" max="1" width="14" customWidth="1"/>
+    <col min="2" max="2" width="37.5703125" customWidth="1"/>
+    <col min="3" max="3" width="31.140625" customWidth="1"/>
+    <col min="4" max="4" width="19.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.4" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-    </row>
-    <row r="2" ht="14.4" customHeight="1" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="3"/>
-      <c r="B2" s="3" t="s">
+    <row r="1" ht="14.45" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" ht="14.45" customHeight="1" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="8"/>
+      <c r="B2" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="8" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" ht="14.4" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
+    <row r="3" ht="14.45" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" s="5" t="str">
+      <c r="B3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" s="4" t="str">
         <f>IF(B3=C3,"PASS","FAIL")</f>
-        <v>PASS</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
+        <v>FAIL</v>
+      </c>
+    </row>
+    <row r="4" ht="15" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="4" t="str">
+      <c r="B4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" s="2" t="str">
         <f>IF(B4=C4,"PASS","FAIL")</f>
-        <v>PASS</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
+        <v>FAIL</v>
+      </c>
+    </row>
+    <row r="5" ht="15" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" s="4" t="str">
+      <c r="B5" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D5" s="2" t="str">
         <f t="shared" ref="D5:D8" si="0">IF(B5=C5,"PASS","FAIL")</f>
-        <v>PASS</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
+        <v>FAIL</v>
+      </c>
+    </row>
+    <row r="6" ht="15" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>PASS</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
+      <c r="B6" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D6" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>FAIL</v>
+      </c>
+    </row>
+    <row r="7" ht="15" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>PASS</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
+      <c r="B7" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D7" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>FAIL</v>
+      </c>
+    </row>
+    <row r="8" ht="15" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D8" s="4" t="str">
+      <c r="D8" s="2" t="str">
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
@@ -1667,12 +1679,12 @@
     <mergeCell ref="A1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="D3:D8">
-    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="2" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:D8">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1689,118 +1701,118 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.55" customHeight="1"/>
+  <sheetFormatPr defaultRowHeight="14.45" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.25" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="14.05078125" customWidth="1"/>
-    <col min="2" max="3" width="42.5234375" customWidth="1"/>
+    <col min="1" max="1" width="14" customWidth="1"/>
+    <col min="2" max="3" width="42.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.4" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="8"/>
-    </row>
-    <row r="2" ht="14.4" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="4"/>
-      <c r="B2" s="3" t="s">
+    <row r="1" ht="14.45" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="7"/>
+    </row>
+    <row r="2" ht="14.45" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="2"/>
+      <c r="B2" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="8" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" ht="14.4" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
+    <row r="3" ht="14.45" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="D3" s="5" t="str">
+      <c r="B3" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="D3" s="4" t="str">
         <f>IF(B3=C3,"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
+    <row r="4" ht="15" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="D4" s="4" t="str">
+      <c r="B4" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="D4" s="2" t="str">
         <f>IF(B4=C4,"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
+    <row r="5" ht="15" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="D5" s="4" t="str">
+      <c r="B5" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="D5" s="2" t="str">
         <f t="shared" ref="D5:D8" si="0">IF(B5=C5,"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
+    <row r="6" ht="15" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="D6" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>PASS</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
+      <c r="B6" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="D6" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+    </row>
+    <row r="7" ht="15" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="D7" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>PASS</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
+      <c r="B7" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="D7" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+    </row>
+    <row r="8" ht="15" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="D8" s="4" t="str">
+      <c r="B8" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="D8" s="2" t="str">
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
@@ -1810,12 +1822,12 @@
     <mergeCell ref="A1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="D3:D8">
-    <cfRule type="cellIs" dxfId="18" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="2" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:D8">
-    <cfRule type="cellIs" dxfId="19" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="1" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1832,118 +1844,118 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.55" customHeight="1"/>
+  <sheetFormatPr defaultRowHeight="14.45" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.25" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="14.05078125" customWidth="1"/>
-    <col min="2" max="3" width="37.83984375" customWidth="1"/>
+    <col min="1" max="1" width="14" customWidth="1"/>
+    <col min="2" max="3" width="37.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.4" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="8"/>
-    </row>
-    <row r="2" ht="14.4" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="4"/>
-      <c r="B2" s="3" t="s">
+    <row r="1" ht="14.45" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="7"/>
+    </row>
+    <row r="2" ht="14.45" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="2"/>
+      <c r="B2" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="8" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" ht="14.4" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
+    <row r="3" ht="14.45" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="D3" s="5" t="str">
+      <c r="B3" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D3" s="4" t="str">
         <f>IF(B3=C3,"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
+    <row r="4" ht="15" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="D4" s="4" t="str">
+      <c r="B4" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="D4" s="2" t="str">
         <f>IF(B4=C4,"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
+    <row r="5" ht="15" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="D5" s="4" t="str">
+      <c r="B5" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D5" s="2" t="str">
         <f t="shared" ref="D5:D8" si="0">IF(B5=C5,"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
+    <row r="6" ht="15" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="D6" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>PASS</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
+      <c r="B6" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="D6" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+    </row>
+    <row r="7" ht="15" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="D7" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>PASS</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
+      <c r="B7" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D7" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+    </row>
+    <row r="8" ht="15" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="D8" s="4" t="str">
+      <c r="B8" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="D8" s="2" t="str">
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
@@ -1953,12 +1965,12 @@
     <mergeCell ref="A1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="D3:D8">
-    <cfRule type="cellIs" dxfId="20" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="2" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:D8">
-    <cfRule type="cellIs" dxfId="21" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="1" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1975,118 +1987,118 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.55" customHeight="1"/>
+  <sheetFormatPr defaultRowHeight="14.45" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.25" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="14.05078125" customWidth="1"/>
-    <col min="2" max="3" width="26.26171875" customWidth="1"/>
+    <col min="1" max="1" width="14" customWidth="1"/>
+    <col min="2" max="3" width="26.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.4" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="8"/>
-    </row>
-    <row r="2" ht="14.4" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="4"/>
-      <c r="B2" s="3" t="s">
+    <row r="1" ht="14.45" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="7"/>
+    </row>
+    <row r="2" ht="14.45" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="2"/>
+      <c r="B2" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="8" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" ht="14.4" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
+    <row r="3" ht="14.45" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="D3" s="5" t="str">
+      <c r="B3" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="D3" s="4" t="str">
         <f>IF(B3=C3,"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
+    <row r="4" ht="15" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="D4" s="4" t="str">
+      <c r="B4" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="D4" s="2" t="str">
         <f>IF(B4=C4,"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
+    <row r="5" ht="15" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="D5" s="4" t="str">
+      <c r="B5" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D5" s="2" t="str">
         <f t="shared" ref="D5:D8" si="0">IF(B5=C5,"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
+    <row r="6" ht="15" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="D6" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>PASS</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
+      <c r="B6" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="D6" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+    </row>
+    <row r="7" ht="15" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="D7" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>FAIL</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
+      <c r="B7" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="D7" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>FAIL</v>
+      </c>
+    </row>
+    <row r="8" ht="15" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="D8" s="4" t="str">
+      <c r="B8" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="D8" s="2" t="str">
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
@@ -2096,12 +2108,12 @@
     <mergeCell ref="A1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="D3:D8">
-    <cfRule type="cellIs" dxfId="22" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="2" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:D8">
-    <cfRule type="cellIs" dxfId="23" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="1" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2118,114 +2130,114 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.55" customHeight="1"/>
+  <sheetFormatPr defaultRowHeight="14.45" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.25" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="14.05078125" customWidth="1"/>
-    <col min="2" max="3" width="56.47265625" customWidth="1"/>
+    <col min="1" max="1" width="14" customWidth="1"/>
+    <col min="2" max="3" width="56.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.4" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="8"/>
-    </row>
-    <row r="2" ht="14.4" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="4"/>
-      <c r="B2" s="3" t="s">
+    <row r="1" ht="14.45" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="7"/>
+    </row>
+    <row r="2" ht="14.45" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="2"/>
+      <c r="B2" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="8" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" ht="14.4" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
+    <row r="3" ht="14.45" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="D3" s="5" t="str">
+      <c r="B3" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="D3" s="4" t="str">
         <f>IF(B3=C3,"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
+    <row r="4" ht="15" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="D4" s="4" t="str">
+      <c r="B4" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="D4" s="2" t="str">
         <f>IF(B4=C4,"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
+    <row r="5" ht="15" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="D5" s="4" t="str">
+      <c r="B5" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="D5" s="2" t="str">
         <f t="shared" ref="D5:D8" si="0">IF(B5=C5,"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
+    <row r="6" ht="15" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="D6" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>PASS</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
+      <c r="B6" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="D6" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+    </row>
+    <row r="7" ht="15" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>PASS</v>
-      </c>
-    </row>
-    <row r="8" ht="14.4" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
+      <c r="B7" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D7" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+    </row>
+    <row r="8" ht="14.45" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4" t="str">
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2" t="str">
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
@@ -2235,12 +2247,12 @@
     <mergeCell ref="A1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="D3:D8">
-    <cfRule type="cellIs" dxfId="24" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="2" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:D8">
-    <cfRule type="cellIs" dxfId="25" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="1" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2257,118 +2269,118 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.55" customHeight="1"/>
+  <sheetFormatPr defaultRowHeight="14.45" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.25" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="14.05078125" customWidth="1"/>
-    <col min="2" max="3" width="28.5234375" customWidth="1"/>
+    <col min="1" max="1" width="14" customWidth="1"/>
+    <col min="2" max="3" width="28.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.4" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="8"/>
-    </row>
-    <row r="2" ht="14.4" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="4"/>
-      <c r="B2" s="3" t="s">
+    <row r="1" ht="14.45" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="7"/>
+    </row>
+    <row r="2" ht="14.45" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="2"/>
+      <c r="B2" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="8" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" ht="14.4" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
+    <row r="3" ht="14.45" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="D3" s="5" t="str">
+      <c r="B3" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="D3" s="4" t="str">
         <f>IF(B3=C3,"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
+    <row r="4" ht="15" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="D4" s="4" t="str">
+      <c r="B4" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="D4" s="2" t="str">
         <f>IF(B4=C4,"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
+    <row r="5" ht="15" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="D5" s="4" t="str">
+      <c r="B5" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="D5" s="2" t="str">
         <f t="shared" ref="D5:D8" si="0">IF(B5=C5,"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
+    <row r="6" ht="15" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="D6" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>PASS</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
+      <c r="B6" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+    </row>
+    <row r="7" ht="15" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="D7" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>FAIL</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
+      <c r="B7" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="D7" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>FAIL</v>
+      </c>
+    </row>
+    <row r="8" ht="15" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="D8" s="4" t="str">
+      <c r="B8" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" s="2" t="str">
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
@@ -2378,12 +2390,12 @@
     <mergeCell ref="A1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="D3:D8">
-    <cfRule type="cellIs" dxfId="26" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="2" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:D8">
-    <cfRule type="cellIs" dxfId="27" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="1" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2400,118 +2412,118 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.55" customHeight="1"/>
+  <sheetFormatPr defaultRowHeight="14.45" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.25" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="14.05078125" customWidth="1"/>
-    <col min="2" max="3" width="41.578125" customWidth="1"/>
+    <col min="1" max="1" width="14" customWidth="1"/>
+    <col min="2" max="3" width="41.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.4" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="8"/>
-    </row>
-    <row r="2" ht="14.4" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="4"/>
-      <c r="B2" s="3" t="s">
+    <row r="1" ht="14.45" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="7"/>
+    </row>
+    <row r="2" ht="14.45" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="2"/>
+      <c r="B2" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="8" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" ht="14.4" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
+    <row r="3" ht="14.45" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="D3" s="5" t="str">
+      <c r="B3" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="D3" s="4" t="str">
         <f>IF(B3=C3,"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
+    <row r="4" ht="15" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="D4" s="4" t="str">
+      <c r="B4" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="D4" s="2" t="str">
         <f>IF(B4=C4,"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
+    <row r="5" ht="15" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="D5" s="4" t="str">
+      <c r="B5" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="D5" s="2" t="str">
         <f t="shared" ref="D5:D8" si="0">IF(B5=C5,"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
+    <row r="6" ht="15" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="D6" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>PASS</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
+      <c r="B6" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="D6" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+    </row>
+    <row r="7" ht="15" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>PASS</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
+      <c r="B7" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D7" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+    </row>
+    <row r="8" ht="15" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="D8" s="4" t="str">
+      <c r="B8" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="D8" s="2" t="str">
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
@@ -2521,12 +2533,12 @@
     <mergeCell ref="A1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="D3:D8">
-    <cfRule type="cellIs" dxfId="28" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="2" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:D8">
-    <cfRule type="cellIs" dxfId="29" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="1" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2543,118 +2555,118 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.55" customHeight="1"/>
+  <sheetFormatPr defaultRowHeight="14.45" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.25" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="14.05078125" customWidth="1"/>
-    <col min="2" max="3" width="25.05078125" customWidth="1"/>
+    <col min="1" max="1" width="14" customWidth="1"/>
+    <col min="2" max="3" width="25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.4" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="8"/>
-    </row>
-    <row r="2" ht="14.4" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="4"/>
-      <c r="B2" s="3" t="s">
+    <row r="1" ht="14.45" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="7"/>
+    </row>
+    <row r="2" ht="14.45" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="2"/>
+      <c r="B2" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="8" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" ht="14.4" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
+    <row r="3" ht="14.45" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="D3" s="5" t="str">
+      <c r="B3" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="D3" s="4" t="str">
         <f>IF(B3=C3,"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
+    <row r="4" ht="15" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="D4" s="4" t="str">
+      <c r="B4" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="D4" s="2" t="str">
         <f>IF(B4=C4,"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
+    <row r="5" ht="15" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="D5" s="4" t="str">
+      <c r="B5" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="D5" s="2" t="str">
         <f t="shared" ref="D5:D8" si="0">IF(B5=C5,"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
+    <row r="6" ht="15" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="D6" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>PASS</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
+      <c r="B6" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="D6" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+    </row>
+    <row r="7" ht="15" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="D7" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>PASS</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
+      <c r="B7" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="D7" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+    </row>
+    <row r="8" ht="15" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="D8" s="4" t="str">
+      <c r="B8" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="D8" s="2" t="str">
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
@@ -2664,12 +2676,12 @@
     <mergeCell ref="A1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="D3:D8">
-    <cfRule type="cellIs" dxfId="30" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="2" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:D8">
-    <cfRule type="cellIs" dxfId="31" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="1" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2686,107 +2698,107 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.55" customHeight="1"/>
+  <sheetFormatPr defaultRowHeight="14.45" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.25" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="14.05078125" customWidth="1"/>
-    <col min="2" max="2" width="10.68359375" customWidth="1"/>
-    <col min="3" max="3" width="29.62890625" customWidth="1"/>
+    <col min="1" max="1" width="14" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" customWidth="1"/>
+    <col min="3" max="3" width="29.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.4" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
-        <v>109</v>
-      </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="8"/>
-    </row>
-    <row r="2" ht="14.4" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="4"/>
-      <c r="B2" s="3" t="s">
+    <row r="1" ht="14.45" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="7"/>
+    </row>
+    <row r="2" ht="14.45" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="2"/>
+      <c r="B2" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="8" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" ht="14.4" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
+    <row r="3" ht="14.45" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="D3" s="5" t="str">
+      <c r="B3" s="2"/>
+      <c r="C3" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="D3" s="4" t="str">
         <f>IF(B3=C3,"PASS","FAIL")</f>
         <v>FAIL</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
+    <row r="4" ht="15" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="D4" s="4" t="str">
+      <c r="B4" s="2"/>
+      <c r="C4" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="D4" s="2" t="str">
         <f>IF(B4=C4,"PASS","FAIL")</f>
         <v>FAIL</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
+    <row r="5" ht="15" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="D5" s="4" t="str">
+      <c r="B5" s="2"/>
+      <c r="C5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="2" t="str">
         <f t="shared" ref="D5:D8" si="0">IF(B5=C5,"PASS","FAIL")</f>
         <v>FAIL</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
+    <row r="6" ht="15" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="D6" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>FAIL</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
+      <c r="B6" s="2"/>
+      <c r="C6" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="D6" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>FAIL</v>
+      </c>
+    </row>
+    <row r="7" ht="15" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="D7" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>FAIL</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
+      <c r="B7" s="2"/>
+      <c r="C7" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="D7" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>FAIL</v>
+      </c>
+    </row>
+    <row r="8" ht="15" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="D8" s="4" t="str">
+      <c r="B8" s="2"/>
+      <c r="C8" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="D8" s="2" t="str">
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
@@ -2796,12 +2808,12 @@
     <mergeCell ref="A1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="D3:D8">
-    <cfRule type="cellIs" dxfId="32" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="34" priority="2" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:D8">
-    <cfRule type="cellIs" dxfId="33" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="35" priority="1" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2818,118 +2830,118 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.55" customHeight="1"/>
+  <sheetFormatPr defaultRowHeight="14.45" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.25" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="14.05078125" customWidth="1"/>
-    <col min="2" max="3" width="27.9453125" customWidth="1"/>
+    <col min="1" max="1" width="14" customWidth="1"/>
+    <col min="2" max="3" width="28" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.4" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
-        <v>114</v>
-      </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="8"/>
-    </row>
-    <row r="2" ht="14.4" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="4"/>
-      <c r="B2" s="3" t="s">
+    <row r="1" ht="14.45" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="7"/>
+    </row>
+    <row r="2" ht="14.45" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="2"/>
+      <c r="B2" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="8" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" ht="14.4" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
+    <row r="3" ht="14.45" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="D3" s="5" t="str">
+      <c r="B3" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="D3" s="4" t="str">
         <f>IF(B3=C3,"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
+    <row r="4" ht="15" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="D4" s="4" t="str">
+      <c r="B4" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="D4" s="2" t="str">
         <f>IF(B4=C4,"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
+    <row r="5" ht="15" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="D5" s="4" t="str">
+      <c r="B5" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D5" s="2" t="str">
         <f t="shared" ref="D5:D8" si="0">IF(B5=C5,"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
+    <row r="6" ht="15" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="D6" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>PASS</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
+      <c r="B6" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="D6" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+    </row>
+    <row r="7" ht="15" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="D7" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>PASS</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
+      <c r="B7" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D7" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+    </row>
+    <row r="8" ht="15" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="D8" s="4" t="str">
+      <c r="B8" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D8" s="2" t="str">
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
@@ -2939,12 +2951,12 @@
     <mergeCell ref="A1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="D3:D8">
-    <cfRule type="cellIs" dxfId="34" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="36" priority="2" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:D8">
-    <cfRule type="cellIs" dxfId="35" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="37" priority="1" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2961,118 +2973,118 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.55" customHeight="1"/>
+  <sheetFormatPr defaultRowHeight="14.45" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.25" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="14.05078125" customWidth="1"/>
-    <col min="2" max="3" width="27.5234375" customWidth="1"/>
+    <col min="1" max="1" width="14" customWidth="1"/>
+    <col min="2" max="3" width="27.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.4" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="8"/>
-    </row>
-    <row r="2" ht="14.4" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="4"/>
-      <c r="B2" s="3" t="s">
+    <row r="1" ht="14.45" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="7"/>
+    </row>
+    <row r="2" ht="14.45" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="2"/>
+      <c r="B2" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="8" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" ht="14.4" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
+    <row r="3" ht="14.45" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="D3" s="5" t="str">
+      <c r="B3" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="D3" s="4" t="str">
         <f>IF(B3=C3,"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
+    <row r="4" ht="15" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="D4" s="4" t="str">
+      <c r="B4" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="D4" s="2" t="str">
         <f>IF(B4=C4,"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
+    <row r="5" ht="15" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="D5" s="4" t="str">
+      <c r="B5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="2" t="str">
         <f t="shared" ref="D5:D8" si="0">IF(B5=C5,"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
+    <row r="6" ht="15" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="D6" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>PASS</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
+      <c r="B6" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+    </row>
+    <row r="7" ht="15" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="D7" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>PASS</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
+      <c r="B7" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="D7" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+    </row>
+    <row r="8" ht="15" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D8" s="4" t="str">
+      <c r="D8" s="2" t="str">
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
@@ -3082,12 +3094,12 @@
     <mergeCell ref="A1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="D3:D8">
-    <cfRule type="cellIs" dxfId="36" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="38" priority="2" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:D8">
-    <cfRule type="cellIs" dxfId="37" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="39" priority="1" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3101,123 +3113,123 @@
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.55" customHeight="1"/>
+  <sheetFormatPr defaultRowHeight="14.45" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.25" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="14.05078125" customWidth="1"/>
-    <col min="2" max="3" width="29.3671875" customWidth="1"/>
+    <col min="1" max="1" width="14" customWidth="1"/>
+    <col min="2" max="3" width="29.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.4" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="8"/>
-    </row>
-    <row r="2" ht="14.4" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="4"/>
-      <c r="B2" s="3" t="s">
+    <row r="1" ht="14.45" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="7"/>
+    </row>
+    <row r="2" ht="14.45" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="2"/>
+      <c r="B2" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="8" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" ht="14.4" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
+    <row r="3" ht="14.45" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D3" s="5" t="str">
+      <c r="D3" s="4" t="str">
         <f>IF(B3=C3,"PASS","FAIL")</f>
-        <v>PASS</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
+        <v>FAIL</v>
+      </c>
+    </row>
+    <row r="4" ht="15" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D4" s="4" t="str">
+      <c r="D4" s="2" t="str">
         <f>IF(B4=C4,"PASS","FAIL")</f>
-        <v>PASS</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
+        <v>FAIL</v>
+      </c>
+    </row>
+    <row r="5" ht="15" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D5" s="4" t="str">
+      <c r="D5" s="2" t="str">
         <f t="shared" ref="D5:D8" si="0">IF(B5=C5,"PASS","FAIL")</f>
-        <v>PASS</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
+        <v>FAIL</v>
+      </c>
+    </row>
+    <row r="6" ht="15" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C6" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D6" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>PASS</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
+      <c r="D6" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>FAIL</v>
+      </c>
+    </row>
+    <row r="7" ht="15" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D7" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>PASS</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
+      <c r="D7" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>FAIL</v>
+      </c>
+    </row>
+    <row r="8" ht="15" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D8" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>PASS</v>
+      <c r="D8" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>FAIL</v>
       </c>
     </row>
   </sheetData>
@@ -3225,12 +3237,12 @@
     <mergeCell ref="A1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="D3:D8">
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="2" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:D8">
-    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="1" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3247,114 +3259,114 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.55" customHeight="1"/>
+  <sheetFormatPr defaultRowHeight="14.45" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.25" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="14.05078125" customWidth="1"/>
-    <col min="2" max="3" width="33.20703125" customWidth="1"/>
+    <col min="1" max="1" width="14" customWidth="1"/>
+    <col min="2" max="3" width="33.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.4" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="8"/>
-    </row>
-    <row r="2" ht="14.4" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="4"/>
-      <c r="B2" s="3" t="s">
+    <row r="1" ht="14.45" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="7"/>
+    </row>
+    <row r="2" ht="14.45" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="2"/>
+      <c r="B2" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="8" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" ht="14.4" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
+    <row r="3" ht="14.45" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="D3" s="5" t="str">
+      <c r="B3" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="D3" s="4" t="str">
         <f>IF(B3=C3,"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
+    <row r="4" ht="15" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="D4" s="4" t="str">
+      <c r="B4" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="D4" s="2" t="str">
         <f>IF(B4=C4,"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
+    <row r="5" ht="15" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="D5" s="4" t="str">
+      <c r="B5" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D5" s="2" t="str">
         <f t="shared" ref="D5:D8" si="0">IF(B5=C5,"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
     </row>
-    <row r="6" ht="14.4" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
+    <row r="6" ht="14.45" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>PASS</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+    </row>
+    <row r="7" ht="15" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="D7" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>PASS</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
+      <c r="B7" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D7" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+    </row>
+    <row r="8" ht="15" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D8" s="4" t="str">
+      <c r="B8" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D8" s="2" t="str">
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
@@ -3364,12 +3376,12 @@
     <mergeCell ref="A1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="D3:D8">
-    <cfRule type="cellIs" dxfId="38" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="40" priority="2" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:D8">
-    <cfRule type="cellIs" dxfId="39" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="41" priority="1" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3386,118 +3398,118 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.55" customHeight="1"/>
+  <sheetFormatPr defaultRowHeight="14.45" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.25" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="14.05078125" customWidth="1"/>
-    <col min="2" max="3" width="19.05078125" customWidth="1"/>
+    <col min="1" max="1" width="14" customWidth="1"/>
+    <col min="2" max="3" width="19" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.4" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="8"/>
-    </row>
-    <row r="2" ht="14.4" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="4"/>
-      <c r="B2" s="3" t="s">
+    <row r="1" ht="14.45" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="7"/>
+    </row>
+    <row r="2" ht="14.45" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="2"/>
+      <c r="B2" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="8" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" ht="14.4" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
+    <row r="3" ht="14.45" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="D3" s="5" t="str">
+      <c r="B3" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="D3" s="4" t="str">
         <f>IF(B3=C3,"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
+    <row r="4" ht="15" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="D4" s="4" t="str">
+      <c r="B4" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="D4" s="2" t="str">
         <f>IF(B4=C4,"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
+    <row r="5" ht="15" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D5" s="4" t="str">
+      <c r="B5" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D5" s="2" t="str">
         <f t="shared" ref="D5:D8" si="0">IF(B5=C5,"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
+    <row r="6" ht="15" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D6" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>PASS</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
+      <c r="B6" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D6" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+    </row>
+    <row r="7" ht="15" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D7" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>PASS</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
+      <c r="B7" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D7" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+    </row>
+    <row r="8" ht="15" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="D8" s="4" t="str">
+      <c r="B8" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="D8" s="2" t="str">
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
@@ -3507,12 +3519,12 @@
     <mergeCell ref="A1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="D3:D8">
-    <cfRule type="cellIs" dxfId="40" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="42" priority="2" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:D8">
-    <cfRule type="cellIs" dxfId="41" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="43" priority="1" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3529,114 +3541,114 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.55" customHeight="1"/>
+  <sheetFormatPr defaultRowHeight="14.45" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.25" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="14.05078125" customWidth="1"/>
-    <col min="2" max="3" width="29.47265625" customWidth="1"/>
+    <col min="1" max="1" width="14" customWidth="1"/>
+    <col min="2" max="3" width="29.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.4" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
-        <v>128</v>
-      </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="8"/>
-    </row>
-    <row r="2" ht="14.4" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="4"/>
-      <c r="B2" s="3" t="s">
+    <row r="1" ht="14.45" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="7"/>
+    </row>
+    <row r="2" ht="14.45" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="2"/>
+      <c r="B2" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="8" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" ht="14.4" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
+    <row r="3" ht="14.45" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="D3" s="5" t="str">
+      <c r="B3" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="D3" s="4" t="str">
         <f>IF(B3=C3,"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
+    <row r="4" ht="15" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="D4" s="4" t="str">
+      <c r="B4" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="D4" s="2" t="str">
         <f>IF(B4=C4,"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
+    <row r="5" ht="15" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="D5" s="4" t="str">
+      <c r="B5" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="D5" s="2" t="str">
         <f t="shared" ref="D5:D8" si="0">IF(B5=C5,"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
     </row>
-    <row r="6" ht="14.4" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
+    <row r="6" ht="14.45" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>PASS</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+    </row>
+    <row r="7" ht="15" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>PASS</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
+      <c r="B7" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D7" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+    </row>
+    <row r="8" ht="15" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="D8" s="4" t="str">
+      <c r="B8" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="D8" s="2" t="str">
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
@@ -3646,12 +3658,12 @@
     <mergeCell ref="A1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="D3:D8">
-    <cfRule type="cellIs" dxfId="42" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="44" priority="2" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:D8">
-    <cfRule type="cellIs" dxfId="43" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="45" priority="1" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3668,116 +3680,116 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.55" customHeight="1"/>
+  <sheetFormatPr defaultRowHeight="14.45" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.25" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="14.05078125" customWidth="1"/>
-    <col min="2" max="3" width="23.15625" customWidth="1"/>
+    <col min="1" max="1" width="14" customWidth="1"/>
+    <col min="2" max="3" width="23.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.4" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
-        <v>132</v>
-      </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="8"/>
-    </row>
-    <row r="2" ht="14.4" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="4"/>
-      <c r="B2" s="3" t="s">
+    <row r="1" ht="14.45" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="7"/>
+    </row>
+    <row r="2" ht="14.45" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="2"/>
+      <c r="B2" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="8" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" ht="14.4" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
+    <row r="3" ht="14.45" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="D3" s="5" t="str">
+      <c r="B3" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="D3" s="4" t="str">
         <f>IF(B3=C3,"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
+    <row r="4" ht="15" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="D4" s="4" t="str">
+      <c r="B4" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="D4" s="2" t="str">
         <f>IF(B4=C4,"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
+    <row r="5" ht="15" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="D5" s="4" t="str">
+      <c r="B5" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="D5" s="2" t="str">
         <f t="shared" ref="D5:D8" si="0">IF(B5=C5,"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
+    <row r="6" ht="15" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="D6" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>PASS</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
+      <c r="B6" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="D6" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+    </row>
+    <row r="7" ht="15" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>PASS</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
+      <c r="B7" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D7" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+    </row>
+    <row r="8" ht="15" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="D8" s="4" t="str">
+      <c r="B8" s="2"/>
+      <c r="C8" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="D8" s="2" t="str">
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
@@ -3787,12 +3799,12 @@
     <mergeCell ref="A1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="D3:D8">
-    <cfRule type="cellIs" dxfId="44" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="46" priority="2" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:D8">
-    <cfRule type="cellIs" dxfId="45" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="47" priority="1" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3809,118 +3821,118 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.55" customHeight="1"/>
+  <sheetFormatPr defaultRowHeight="14.45" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.25" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="14.05078125" customWidth="1"/>
-    <col min="2" max="3" width="33.3125" customWidth="1"/>
+    <col min="1" max="1" width="14" customWidth="1"/>
+    <col min="2" max="3" width="33.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.4" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
-        <v>137</v>
-      </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="8"/>
-    </row>
-    <row r="2" ht="14.4" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="4"/>
-      <c r="B2" s="3" t="s">
+    <row r="1" ht="14.45" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="7"/>
+    </row>
+    <row r="2" ht="14.45" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="2"/>
+      <c r="B2" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="8" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" ht="14.4" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
+    <row r="3" ht="14.45" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="D3" s="5" t="str">
+      <c r="B3" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="D3" s="4" t="str">
         <f>IF(B3=C3,"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
+    <row r="4" ht="15" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="D4" s="4" t="str">
+      <c r="B4" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="D4" s="2" t="str">
         <f>IF(B4=C4,"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
+    <row r="5" ht="15" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="D5" s="4" t="str">
+      <c r="B5" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="D5" s="2" t="str">
         <f t="shared" ref="D5:D8" si="0">IF(B5=C5,"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
+    <row r="6" ht="15" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="D6" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>PASS</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
+      <c r="B6" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="D6" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+    </row>
+    <row r="7" ht="15" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="D7" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>PASS</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
+      <c r="B7" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="D7" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+    </row>
+    <row r="8" ht="15" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="D8" s="4" t="str">
+      <c r="B8" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="D8" s="2" t="str">
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
@@ -3930,12 +3942,12 @@
     <mergeCell ref="A1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="D3:D8">
-    <cfRule type="cellIs" dxfId="46" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="48" priority="2" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:D8">
-    <cfRule type="cellIs" dxfId="47" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="49" priority="1" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3952,118 +3964,118 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.55" customHeight="1"/>
+  <sheetFormatPr defaultRowHeight="14.45" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.25" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="14.05078125" customWidth="1"/>
-    <col min="2" max="3" width="22.1015625" customWidth="1"/>
+    <col min="1" max="1" width="14" customWidth="1"/>
+    <col min="2" max="3" width="22.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.4" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
-        <v>143</v>
-      </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="8"/>
-    </row>
-    <row r="2" ht="14.4" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="4"/>
-      <c r="B2" s="3" t="s">
+    <row r="1" ht="14.45" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="7"/>
+    </row>
+    <row r="2" ht="14.45" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="2"/>
+      <c r="B2" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="8" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" ht="14.4" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
+    <row r="3" ht="14.45" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="D3" s="5" t="str">
+      <c r="B3" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="D3" s="4" t="str">
         <f>IF(B3=C3,"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
+    <row r="4" ht="15" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="D4" s="4" t="str">
+      <c r="B4" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="D4" s="2" t="str">
         <f>IF(B4=C4,"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
+    <row r="5" ht="15" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="D5" s="4" t="str">
+      <c r="B5" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="D5" s="2" t="str">
         <f t="shared" ref="D5:D8" si="0">IF(B5=C5,"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
+    <row r="6" ht="15" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="D6" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>PASS</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
+      <c r="B6" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="D6" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+    </row>
+    <row r="7" ht="15" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>PASS</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
+      <c r="B7" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D7" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+    </row>
+    <row r="8" ht="15" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="D8" s="4" t="str">
+      <c r="B8" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="D8" s="2" t="str">
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
@@ -4073,12 +4085,12 @@
     <mergeCell ref="A1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="D3:D8">
-    <cfRule type="cellIs" dxfId="48" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="50" priority="2" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:D8">
-    <cfRule type="cellIs" dxfId="49" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="51" priority="1" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4095,119 +4107,119 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.55" customHeight="1"/>
+  <sheetFormatPr defaultRowHeight="14.45" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.25" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="14.05078125" customWidth="1"/>
-    <col min="2" max="2" width="52.3125" customWidth="1"/>
-    <col min="3" max="3" width="40.41796875" customWidth="1"/>
+    <col min="1" max="1" width="14" customWidth="1"/>
+    <col min="2" max="2" width="52.28515625" customWidth="1"/>
+    <col min="3" max="3" width="40.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.4" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
-        <v>149</v>
-      </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="8"/>
-    </row>
-    <row r="2" ht="14.4" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="4"/>
-      <c r="B2" s="3" t="s">
+    <row r="1" ht="14.45" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="7"/>
+    </row>
+    <row r="2" ht="14.45" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="2"/>
+      <c r="B2" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="8" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" ht="14.4" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
+    <row r="3" ht="14.45" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="D3" s="5" t="str">
+      <c r="B3" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="D3" s="4" t="str">
         <f>IF(B3=C3,"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
+    <row r="4" ht="15" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="D4" s="4" t="str">
+      <c r="B4" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="D4" s="2" t="str">
         <f>IF(B4=C4,"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
+    <row r="5" ht="15" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" s="4" t="str">
+      <c r="B5" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" s="2" t="str">
         <f t="shared" ref="D5:D8" si="0">IF(B5=C5,"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
+    <row r="6" ht="15" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>PASS</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
+      <c r="B6" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D6" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+    </row>
+    <row r="7" ht="15" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>PASS</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
+      <c r="B7" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D7" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+    </row>
+    <row r="8" ht="15" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D8" s="4" t="str">
+      <c r="D8" s="2" t="str">
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
@@ -4217,12 +4229,12 @@
     <mergeCell ref="A1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="D3:D8">
-    <cfRule type="cellIs" dxfId="50" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="52" priority="2" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:D8">
-    <cfRule type="cellIs" dxfId="51" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="53" priority="1" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4239,118 +4251,118 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.55" customHeight="1"/>
+  <sheetFormatPr defaultRowHeight="14.45" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.25" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="17.26171875" customWidth="1"/>
-    <col min="2" max="3" width="52.3125" customWidth="1"/>
+    <col min="1" max="1" width="17.28515625" customWidth="1"/>
+    <col min="2" max="3" width="52.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.4" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-    </row>
-    <row r="2" ht="14.4" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="4"/>
-      <c r="B2" s="11" t="s">
+    <row r="1" ht="14.45" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" ht="14.45" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="2"/>
+      <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="D2" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" ht="14.4" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
+    <row r="3" ht="14.45" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="D3" s="5" t="str">
+      <c r="B3" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="D3" s="4" t="str">
         <f>IF(B3=C3,"PASS","FAIL")</f>
         <v>FAIL</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
+    <row r="4" ht="15" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="D4" s="4" t="str">
+      <c r="B4" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="D4" s="2" t="str">
         <f>IF(B4=C4,"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
+    <row r="5" ht="15" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="D5" s="4" t="str">
+      <c r="B5" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="D5" s="2" t="str">
         <f t="shared" ref="D5:D8" si="0">IF(B5=C5,"PASS","FAIL")</f>
         <v>FAIL</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
+    <row r="6" ht="15" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="D6" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>PASS</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
+      <c r="B6" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="D6" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+    </row>
+    <row r="7" ht="15" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="D7" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>FAIL</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
+      <c r="B7" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="D7" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>FAIL</v>
+      </c>
+    </row>
+    <row r="8" ht="15" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D8" s="4" t="str">
+      <c r="B8" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D8" s="2" t="str">
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
@@ -4360,12 +4372,12 @@
     <mergeCell ref="A1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="D3:D8">
-    <cfRule type="cellIs" dxfId="52" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="54" priority="2" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:D8">
-    <cfRule type="cellIs" dxfId="53" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="55" priority="1" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4382,119 +4394,119 @@
       <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.55" customHeight="1"/>
+  <sheetFormatPr defaultRowHeight="14.45" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.25" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="14.05078125" customWidth="1"/>
-    <col min="2" max="2" width="52.3125" customWidth="1"/>
-    <col min="3" max="3" width="33.83984375" customWidth="1"/>
+    <col min="1" max="1" width="14" customWidth="1"/>
+    <col min="2" max="2" width="52.28515625" customWidth="1"/>
+    <col min="3" max="3" width="33.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
+      <c r="A1" s="9" t="s">
+        <v>170</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="4"/>
-      <c r="B2" s="11" t="s">
+      <c r="A2" s="2"/>
+      <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="D2" s="3" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="D3" s="5" t="str">
+      <c r="B3" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="D3" s="4" t="str">
         <f>IF(B3=C3,"PASS","FAIL")</f>
         <v>FAIL</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="D4" s="4" t="str">
+      <c r="B4" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="D4" s="2" t="str">
         <f>IF(B4=C4,"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="D5" s="4" t="str">
+      <c r="B5" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="D5" s="2" t="str">
         <f t="shared" ref="D5:D8" si="0">IF(B5=C5,"PASS","FAIL")</f>
         <v>FAIL</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="D6" s="4" t="str">
+      <c r="B6" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="D6" s="2" t="str">
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="D7" s="4" t="str">
+      <c r="B7" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="D7" s="2" t="str">
         <f t="shared" si="0"/>
         <v>FAIL</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D8" s="4" t="str">
+      <c r="B8" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D8" s="2" t="str">
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
@@ -4504,12 +4516,12 @@
     <mergeCell ref="A1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="D3:D8">
-    <cfRule type="cellIs" dxfId="54" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="56" priority="2" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:D8">
-    <cfRule type="cellIs" dxfId="55" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="57" priority="1" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4524,119 +4536,119 @@
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.55" customHeight="1"/>
+  <sheetFormatPr defaultRowHeight="14.45" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.25" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="14.05078125" customWidth="1"/>
-    <col min="2" max="2" width="52.3125" customWidth="1"/>
-    <col min="3" max="3" width="33.83984375" customWidth="1"/>
+    <col min="1" max="1" width="14" customWidth="1"/>
+    <col min="2" max="2" width="52.28515625" customWidth="1"/>
+    <col min="3" max="3" width="33.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="2"/>
+      <c r="B2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="4"/>
-      <c r="B2" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="11" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="D3" s="5" t="str">
+      <c r="C3" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="D3" s="4" t="str">
         <f>IF(B3=C3,"PASS","FAIL")</f>
         <v>FAIL</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="C4" s="4" t="s">
+      <c r="B4" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="D4" s="4" t="str">
+      <c r="C4" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="D4" s="2" t="str">
         <f>IF(B4=C4,"PASS","FAIL")</f>
         <v>FAIL</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="C5" s="4" t="s">
+      <c r="B5" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="D5" s="4" t="str">
+      <c r="C5" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="D5" s="2" t="str">
         <f t="shared" ref="D5:D8" si="0">IF(B5=C5,"PASS","FAIL")</f>
         <v>FAIL</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="D6" s="4" t="str">
+      <c r="B6" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="D6" s="2" t="str">
         <f t="shared" si="0"/>
         <v>FAIL</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D7" s="4" t="str">
+      <c r="B7" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D7" s="2" t="str">
         <f t="shared" si="0"/>
         <v>FAIL</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="D8" s="4" t="str">
+      <c r="B8" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="D8" s="2" t="str">
         <f t="shared" si="0"/>
         <v>FAIL</v>
       </c>
@@ -4646,12 +4658,12 @@
     <mergeCell ref="A1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="D3:D8">
-    <cfRule type="cellIs" dxfId="56" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="58" priority="2" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:D8">
-    <cfRule type="cellIs" dxfId="57" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="59" priority="1" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4668,118 +4680,118 @@
       <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.55" customHeight="1"/>
+  <sheetFormatPr defaultRowHeight="14.45" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.25" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="18.26171875" customWidth="1"/>
-    <col min="2" max="3" width="32.3125" customWidth="1"/>
+    <col min="1" max="1" width="18.28515625" customWidth="1"/>
+    <col min="2" max="3" width="32.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.4" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="8"/>
-    </row>
-    <row r="2" ht="14.4" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="4"/>
-      <c r="B2" s="3" t="s">
+    <row r="1" ht="14.45" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="7"/>
+    </row>
+    <row r="2" ht="14.45" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="2"/>
+      <c r="B2" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="8" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" ht="14.4" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
+    <row r="3" ht="14.45" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="C3" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D3" s="5" t="str">
+      <c r="B3" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="D3" s="4" t="str">
         <f>IF(B3=C3,"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
+    <row r="4" ht="15" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="C4" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="D4" s="4" t="str">
+      <c r="B4" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="D4" s="2" t="str">
         <f>IF(B4=C4,"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
+    <row r="5" ht="15" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="D5" s="4" t="str">
+      <c r="B5" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="D5" s="2" t="str">
         <f t="shared" ref="D5:D8" si="0">IF(B5=C5,"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
+    <row r="6" ht="15" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="C6" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="D6" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>PASS</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
+      <c r="B6" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="D6" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+    </row>
+    <row r="7" ht="15" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="C7" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="D7" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>PASS</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
+      <c r="B7" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="D7" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>FAIL</v>
+      </c>
+    </row>
+    <row r="8" ht="15" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="C8" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="D8" s="4" t="str">
+      <c r="B8" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" s="2" t="str">
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
@@ -4789,12 +4801,12 @@
     <mergeCell ref="A1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="D3:D8">
-    <cfRule type="cellIs" dxfId="4" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="2" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:D8">
-    <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="1" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4809,119 +4821,119 @@
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.55" customHeight="1"/>
+  <sheetFormatPr defaultRowHeight="14.45" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.25" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="14.05078125" customWidth="1"/>
-    <col min="2" max="2" width="52.3125" customWidth="1"/>
-    <col min="3" max="3" width="33.83984375" customWidth="1"/>
+    <col min="1" max="1" width="14" customWidth="1"/>
+    <col min="2" max="2" width="52.28515625" customWidth="1"/>
+    <col min="3" max="3" width="33.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="9" t="s">
+        <v>176</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="2"/>
+      <c r="B2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="D3" s="4" t="str">
+        <f>IF(B3=C3,"PASS","FAIL")</f>
+        <v>FAIL</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="D4" s="2" t="str">
+        <f>IF(B4=C4,"PASS","FAIL")</f>
+        <v>FAIL</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="D5" s="2" t="str">
+        <f t="shared" ref="D5:D8" si="0">IF(B5=C5,"PASS","FAIL")</f>
+        <v>FAIL</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="4"/>
-      <c r="B2" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="11" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="C3" s="4" t="s">
+      <c r="C6" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="D6" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>FAIL</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="D3" s="5" t="str">
-        <f>IF(B3=C3,"PASS","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="D4" s="4" t="str">
-        <f>IF(B4=C4,"PASS","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>170</v>
-      </c>
-      <c r="D5" s="4" t="str">
-        <f t="shared" ref="D5:D8" si="0">IF(B5=C5,"PASS","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>171</v>
-      </c>
-      <c r="D6" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>FAIL</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="D7" s="4" t="str">
+      <c r="C7" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D7" s="2" t="str">
         <f t="shared" si="0"/>
         <v>FAIL</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="D8" s="4" t="str">
+      <c r="B8" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="D8" s="2" t="str">
         <f t="shared" si="0"/>
         <v>FAIL</v>
       </c>
@@ -4931,12 +4943,12 @@
     <mergeCell ref="A1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="D3:D8">
-    <cfRule type="cellIs" dxfId="58" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="60" priority="2" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:D8">
-    <cfRule type="cellIs" dxfId="59" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="61" priority="1" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4951,119 +4963,119 @@
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.55" customHeight="1"/>
+  <sheetFormatPr defaultRowHeight="14.45" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.25" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="14.05078125" customWidth="1"/>
-    <col min="2" max="2" width="52.3125" customWidth="1"/>
-    <col min="3" max="3" width="33.83984375" customWidth="1"/>
+    <col min="1" max="1" width="14" customWidth="1"/>
+    <col min="2" max="2" width="52.28515625" customWidth="1"/>
+    <col min="3" max="3" width="33.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
+      <c r="A1" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="4"/>
-      <c r="B2" s="11" t="s">
+      <c r="A2" s="2"/>
+      <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="D2" s="3" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="D3" s="5" t="str">
+      <c r="B3" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="D3" s="4" t="str">
         <f>IF(B3=C3,"PASS","FAIL")</f>
         <v>FAIL</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="D4" s="4" t="str">
+      <c r="B4" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="D4" s="2" t="str">
         <f>IF(B4=C4,"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="D5" s="4" t="str">
+      <c r="B5" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="D5" s="2" t="str">
         <f t="shared" ref="D5:D8" si="0">IF(B5=C5,"PASS","FAIL")</f>
         <v>FAIL</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="D6" s="4" t="str">
+      <c r="B6" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="D6" s="2" t="str">
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="D7" s="4" t="str">
+      <c r="B7" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="D7" s="2" t="str">
         <f t="shared" si="0"/>
         <v>FAIL</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D8" s="4" t="str">
+      <c r="B8" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D8" s="2" t="str">
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
@@ -5073,12 +5085,12 @@
     <mergeCell ref="A1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="D3:D8">
-    <cfRule type="cellIs" dxfId="60" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="62" priority="2" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:D8">
-    <cfRule type="cellIs" dxfId="61" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="63" priority="1" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5093,119 +5105,119 @@
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.55" customHeight="1"/>
+  <sheetFormatPr defaultRowHeight="14.45" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.25" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="14.05078125" customWidth="1"/>
-    <col min="2" max="2" width="52.3125" customWidth="1"/>
-    <col min="3" max="3" width="33.83984375" customWidth="1"/>
+    <col min="1" max="1" width="14" customWidth="1"/>
+    <col min="2" max="2" width="52.28515625" customWidth="1"/>
+    <col min="3" max="3" width="33.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
+      <c r="A1" s="9" t="s">
+        <v>182</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="4"/>
-      <c r="B2" s="11" t="s">
+      <c r="A2" s="2"/>
+      <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="D2" s="3" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>174</v>
-      </c>
-      <c r="D3" s="5" t="str">
+      <c r="B3" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="D3" s="4" t="str">
         <f>IF(B3=C3,"PASS","FAIL")</f>
         <v>FAIL</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="D4" s="4" t="str">
+      <c r="B4" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="D4" s="2" t="str">
         <f>IF(B4=C4,"PASS","FAIL")</f>
         <v>FAIL</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="D5" s="4" t="str">
+      <c r="B5" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="D5" s="2" t="str">
         <f t="shared" ref="D5:D8" si="0">IF(B5=C5,"PASS","FAIL")</f>
         <v>FAIL</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="D6" s="4" t="str">
+      <c r="B6" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="D6" s="2" t="str">
         <f t="shared" si="0"/>
         <v>FAIL</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" s="4" t="str">
+      <c r="B7" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D7" s="2" t="str">
         <f t="shared" si="0"/>
         <v>FAIL</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="D8" s="4" t="str">
+      <c r="B8" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D8" s="2" t="str">
         <f t="shared" si="0"/>
         <v>FAIL</v>
       </c>
@@ -5215,12 +5227,12 @@
     <mergeCell ref="A1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="D3:D8">
-    <cfRule type="cellIs" dxfId="62" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="64" priority="2" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:D8">
-    <cfRule type="cellIs" dxfId="63" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="65" priority="1" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5237,140 +5249,140 @@
       <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.55" customHeight="1"/>
+  <sheetFormatPr defaultRowHeight="14.45" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.25" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="14.05078125" customWidth="1"/>
-    <col min="2" max="2" width="52.3125" customWidth="1"/>
-    <col min="3" max="3" width="33.83984375" customWidth="1"/>
+    <col min="1" max="1" width="14" customWidth="1"/>
+    <col min="2" max="2" width="52.28515625" customWidth="1"/>
+    <col min="3" max="3" width="33.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
+      <c r="A1" s="9" t="s">
+        <v>187</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="4"/>
-      <c r="B2" s="11" t="s">
+      <c r="A2" s="2"/>
+      <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="D2" s="3" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="D3" s="5" t="str">
+      <c r="B3" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="D3" s="4" t="str">
         <f>IF(B3=C3,"PASS","FAIL")</f>
         <v>FAIL</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="D4" s="4" t="str">
+      <c r="B4" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="D4" s="2" t="str">
         <f>IF(B4=C4,"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="D5" s="4" t="str">
+      <c r="B5" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="D5" s="2" t="str">
         <f t="shared" ref="D5:D8" si="0">IF(B5=C5,"PASS","FAIL")</f>
         <v>FAIL</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="D6" s="4" t="str">
+      <c r="B6" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="D6" s="2" t="str">
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="D7" s="4" t="str">
+      <c r="B7" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="D7" s="2" t="str">
         <f t="shared" si="0"/>
         <v>FAIL</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D8" s="4" t="str">
+      <c r="B8" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D8" s="2" t="str">
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="4"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="D3:D8">
-    <cfRule type="cellIs" dxfId="64" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="66" priority="2" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:D8">
-    <cfRule type="cellIs" dxfId="65" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="67" priority="1" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5385,119 +5397,119 @@
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.55" customHeight="1"/>
+  <sheetFormatPr defaultRowHeight="14.45" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.25" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="14.05078125" customWidth="1"/>
-    <col min="2" max="2" width="52.3125" customWidth="1"/>
-    <col min="3" max="3" width="33.83984375" customWidth="1"/>
+    <col min="1" max="1" width="14" customWidth="1"/>
+    <col min="2" max="2" width="52.28515625" customWidth="1"/>
+    <col min="3" max="3" width="33.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
+      <c r="A1" s="9" t="s">
+        <v>188</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="4"/>
-      <c r="B2" s="11" t="s">
+      <c r="A2" s="2"/>
+      <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="D2" s="3" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="D3" s="5" t="str">
+      <c r="B3" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="D3" s="4" t="str">
         <f>IF(B3=C3,"PASS","FAIL")</f>
         <v>FAIL</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="D4" s="4" t="str">
+      <c r="B4" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="D4" s="2" t="str">
         <f>IF(B4=C4,"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="D5" s="4" t="str">
+      <c r="B5" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="D5" s="2" t="str">
         <f t="shared" ref="D5:D8" si="0">IF(B5=C5,"PASS","FAIL")</f>
         <v>FAIL</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="D6" s="4" t="str">
+      <c r="B6" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="D6" s="2" t="str">
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="D7" s="4" t="str">
+      <c r="B7" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="D7" s="2" t="str">
         <f t="shared" si="0"/>
         <v>FAIL</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D8" s="4" t="str">
+      <c r="B8" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D8" s="2" t="str">
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
@@ -5507,12 +5519,12 @@
     <mergeCell ref="A1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="D3:D8">
-    <cfRule type="cellIs" dxfId="66" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="68" priority="2" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:D8">
-    <cfRule type="cellIs" dxfId="67" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="69" priority="1" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5529,119 +5541,119 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.55" customHeight="1"/>
+  <sheetFormatPr defaultRowHeight="14.45" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.25" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="14.05078125" customWidth="1"/>
-    <col min="2" max="2" width="52.3125" customWidth="1"/>
-    <col min="3" max="3" width="33.83984375" customWidth="1"/>
+    <col min="1" max="1" width="14" customWidth="1"/>
+    <col min="2" max="2" width="52.28515625" customWidth="1"/>
+    <col min="3" max="3" width="33.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
+      <c r="A1" s="9" t="s">
+        <v>189</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="4"/>
-      <c r="B2" s="11" t="s">
+      <c r="A2" s="2"/>
+      <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="D2" s="3" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="D3" s="5" t="str">
+      <c r="B3" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="D3" s="4" t="str">
         <f>IF(B3=C3,"PASS","FAIL")</f>
         <v>FAIL</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="D4" s="4" t="str">
+      <c r="B4" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="D4" s="2" t="str">
         <f>IF(B4=C4,"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="D5" s="4" t="str">
+      <c r="B5" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="D5" s="2" t="str">
         <f t="shared" ref="D5:D8" si="0">IF(B5=C5,"PASS","FAIL")</f>
         <v>FAIL</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="D6" s="4" t="str">
+      <c r="B6" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="D6" s="2" t="str">
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="D7" s="4" t="str">
+      <c r="B7" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="D7" s="2" t="str">
         <f t="shared" si="0"/>
         <v>FAIL</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D8" s="4" t="str">
+      <c r="B8" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D8" s="2" t="str">
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
@@ -5651,12 +5663,12 @@
     <mergeCell ref="A1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="D3:D8">
-    <cfRule type="cellIs" dxfId="68" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="70" priority="2" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:D8">
-    <cfRule type="cellIs" dxfId="69" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="71" priority="1" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5673,118 +5685,118 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.55" customHeight="1"/>
+  <sheetFormatPr defaultRowHeight="14.45" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.25" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="14.05078125" customWidth="1"/>
-    <col min="2" max="3" width="37.3125" customWidth="1"/>
+    <col min="1" max="1" width="14" customWidth="1"/>
+    <col min="2" max="3" width="37.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.4" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-    </row>
-    <row r="2" ht="14.4" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="4"/>
-      <c r="B2" s="3" t="s">
+    <row r="1" ht="14.45" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" ht="14.45" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="2"/>
+      <c r="B2" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="8" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" ht="14.4" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
+    <row r="3" ht="14.45" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="D3" s="5" t="str">
+      <c r="B3" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D3" s="4" t="str">
         <f>IF(B3=C3,"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
+    <row r="4" ht="15" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="D4" s="4" t="str">
+      <c r="B4" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D4" s="2" t="str">
         <f>IF(B4=C4,"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
+    <row r="5" ht="15" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="D5" s="4" t="str">
+      <c r="B5" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D5" s="2" t="str">
         <f t="shared" ref="D5:D8" si="0">IF(B5=C5,"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
+    <row r="6" ht="15" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="D6" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>PASS</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
+      <c r="B6" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D6" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+    </row>
+    <row r="7" ht="15" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="D7" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>PASS</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
+      <c r="B7" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D7" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+    </row>
+    <row r="8" ht="15" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="D8" s="4" t="str">
+      <c r="B8" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" s="2" t="str">
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
@@ -5794,12 +5806,12 @@
     <mergeCell ref="A1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="D3:D8">
-    <cfRule type="cellIs" dxfId="6" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="2" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:D8">
-    <cfRule type="cellIs" dxfId="7" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="1" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5816,118 +5828,118 @@
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.55" customHeight="1"/>
+  <sheetFormatPr defaultRowHeight="14.45" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.25" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="18.15625" customWidth="1"/>
-    <col min="2" max="3" width="10.7890625" customWidth="1"/>
+    <col min="1" max="1" width="18.140625" customWidth="1"/>
+    <col min="2" max="3" width="10.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.4" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-    </row>
-    <row r="2" ht="14.4" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="4"/>
-      <c r="B2" s="3" t="s">
+    <row r="1" ht="14.45" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" ht="14.45" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="2"/>
+      <c r="B2" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="8" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" ht="14.4" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
+    <row r="3" ht="14.45" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="D3" s="5" t="str">
+      <c r="B3" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D3" s="4" t="str">
         <f>IF(B3=C3,"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
+    <row r="4" ht="15" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="D4" s="4" t="str">
+      <c r="B4" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D4" s="2" t="str">
         <f>IF(B4=C4,"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
+    <row r="5" ht="15" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="D5" s="4" t="str">
+      <c r="B5" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D5" s="2" t="str">
         <f t="shared" ref="D5:D8" si="0">IF(B5=C5,"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
+    <row r="6" ht="15" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="D6" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>PASS</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
+      <c r="B6" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D6" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+    </row>
+    <row r="7" ht="15" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="D7" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>PASS</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
+      <c r="B7" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D7" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+    </row>
+    <row r="8" ht="15" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="D8" s="4" t="str">
+      <c r="B8" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D8" s="2" t="str">
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
@@ -5937,12 +5949,12 @@
     <mergeCell ref="A1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="D3:D8">
-    <cfRule type="cellIs" dxfId="8" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="2" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:D8">
-    <cfRule type="cellIs" dxfId="9" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="1" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5959,119 +5971,119 @@
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.55" customHeight="1"/>
+  <sheetFormatPr defaultRowHeight="14.45" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.25" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="14.05078125" customWidth="1"/>
-    <col min="2" max="2" width="52.3125" customWidth="1"/>
-    <col min="3" max="3" width="33.83984375" customWidth="1"/>
+    <col min="1" max="1" width="14" customWidth="1"/>
+    <col min="2" max="2" width="52.28515625" customWidth="1"/>
+    <col min="3" max="3" width="33.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.4" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
-        <v>181</v>
-      </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-    </row>
-    <row r="2" ht="28.8" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="4"/>
-      <c r="B2" s="11" t="s">
+    <row r="1" ht="14.45" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+    </row>
+    <row r="2" ht="28.9" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="2"/>
+      <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="D2" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
+    <row r="3" ht="15" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>182</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>182</v>
-      </c>
-      <c r="D3" s="5" t="str">
+      <c r="B3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="4" t="str">
         <f>IF(B3=C3,"PASS","FAIL")</f>
         <v>FAIL</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
+    <row r="4" ht="15" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>183</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>183</v>
-      </c>
-      <c r="D4" s="4" t="str">
+      <c r="B4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="2" t="str">
         <f>IF(B4=C4,"PASS","FAIL")</f>
         <v>FAIL</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
+    <row r="5" ht="15" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="D5" s="4" t="str">
+      <c r="B5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="2" t="str">
         <f t="shared" ref="D5:D8" si="0">IF(B5=C5,"PASS","FAIL")</f>
         <v>FAIL</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
+    <row r="6" ht="15" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="D6" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>FAIL</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
+      <c r="B6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>FAIL</v>
+      </c>
+    </row>
+    <row r="7" ht="15" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="D7" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>FAIL</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
+      <c r="B7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>FAIL</v>
+      </c>
+    </row>
+    <row r="8" ht="15" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D8" s="4" t="str">
+      <c r="D8" s="2" t="str">
         <f t="shared" si="0"/>
         <v>FAIL</v>
       </c>
@@ -6081,12 +6093,12 @@
     <mergeCell ref="A1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="D3:D8">
-    <cfRule type="cellIs" dxfId="70" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:D8">
-    <cfRule type="cellIs" dxfId="71" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6103,119 +6115,119 @@
       <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.55" customHeight="1"/>
+  <sheetFormatPr defaultRowHeight="14.45" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.25" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="21.3671875" customWidth="1"/>
-    <col min="2" max="2" width="43.7890625" customWidth="1"/>
-    <col min="3" max="3" width="35.62890625" customWidth="1"/>
+    <col min="1" max="1" width="21.42578125" customWidth="1"/>
+    <col min="2" max="2" width="43.85546875" customWidth="1"/>
+    <col min="3" max="3" width="35.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.4" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="8"/>
-    </row>
-    <row r="2" ht="14.4" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="4"/>
-      <c r="B2" s="3" t="s">
+    <row r="1" ht="14.45" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="7"/>
+    </row>
+    <row r="2" ht="14.45" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="2"/>
+      <c r="B2" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="8" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" ht="14.4" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
+    <row r="3" ht="14.45" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="D3" s="5" t="str">
+      <c r="B3" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D3" s="4" t="str">
         <f>IF(B3=C3,"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
+    <row r="4" ht="15" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="D4" s="4" t="str">
+      <c r="B4" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D4" s="2" t="str">
         <f>IF(B4=C4,"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
+    <row r="5" ht="15" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="D5" s="4" t="str">
+      <c r="B5" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D5" s="2" t="str">
         <f t="shared" ref="D5:D8" si="0">IF(B5=C5,"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
+    <row r="6" ht="15" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="D6" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>PASS</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
+      <c r="B6" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D6" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+    </row>
+    <row r="7" ht="15" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="D7" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>PASS</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
+      <c r="B7" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D7" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+    </row>
+    <row r="8" ht="15" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="D8" s="4" t="str">
+      <c r="B8" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" s="2" t="str">
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
@@ -6225,12 +6237,12 @@
     <mergeCell ref="A1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="D3:D8">
-    <cfRule type="cellIs" dxfId="10" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="2" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:D8">
-    <cfRule type="cellIs" dxfId="11" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="1" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6247,118 +6259,118 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.55" customHeight="1"/>
+  <sheetFormatPr defaultRowHeight="14.45" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.25" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="14.05078125" customWidth="1"/>
-    <col min="2" max="3" width="32.5234375" customWidth="1"/>
+    <col min="1" max="1" width="14" customWidth="1"/>
+    <col min="2" max="3" width="32.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.4" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="8"/>
-    </row>
-    <row r="2" ht="14.4" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="4"/>
-      <c r="B2" s="3" t="s">
+    <row r="1" ht="14.45" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="7"/>
+    </row>
+    <row r="2" ht="14.45" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="2"/>
+      <c r="B2" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="8" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" ht="14.4" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
+    <row r="3" ht="14.45" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="D3" s="5" t="str">
+      <c r="B3" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D3" s="4" t="str">
         <f>IF(B3=C3,"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
+    <row r="4" ht="15" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="D4" s="4" t="str">
+      <c r="B4" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D4" s="2" t="str">
         <f>IF(B4=C4,"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
+    <row r="5" ht="15" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="D5" s="4" t="str">
+      <c r="B5" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D5" s="2" t="str">
         <f t="shared" ref="D5:D8" si="0">IF(B5=C5,"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
+    <row r="6" ht="15" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="D6" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>PASS</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
+      <c r="B6" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D6" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+    </row>
+    <row r="7" ht="15" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>PASS</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
+      <c r="B7" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D7" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+    </row>
+    <row r="8" ht="15" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="D8" s="4" t="str">
+      <c r="B8" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D8" s="2" t="str">
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
@@ -6368,12 +6380,12 @@
     <mergeCell ref="A1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="D3:D8">
-    <cfRule type="cellIs" dxfId="12" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="2" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:D8">
-    <cfRule type="cellIs" dxfId="13" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="1" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6387,121 +6399,121 @@
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
-      <selection activeCell="L29" sqref="L29"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.55" customHeight="1"/>
+  <sheetFormatPr defaultRowHeight="14.45" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.25" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="14.7890625" customWidth="1"/>
-    <col min="2" max="3" width="33.9453125" customWidth="1"/>
+    <col min="1" max="1" width="14.85546875" customWidth="1"/>
+    <col min="2" max="3" width="34" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.4" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="8"/>
-    </row>
-    <row r="2" ht="14.4" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="4"/>
-      <c r="B2" s="3" t="s">
+    <row r="1" ht="14.45" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="7"/>
+    </row>
+    <row r="2" ht="14.45" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="2"/>
+      <c r="B2" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="8" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" ht="14.4" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
+    <row r="3" ht="14.45" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="D3" s="5" t="str">
+      <c r="B3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="4" t="str">
         <f>IF(B3=C3,"PASS","FAIL")</f>
         <v>FAIL</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
+    <row r="4" ht="15" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="D4" s="4" t="str">
+      <c r="B4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="2" t="str">
         <f>IF(B4=C4,"PASS","FAIL")</f>
         <v>FAIL</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
+    <row r="5" ht="15" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="D5" s="4" t="str">
+      <c r="B5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="2" t="str">
         <f t="shared" ref="D5:D8" si="0">IF(B5=C5,"PASS","FAIL")</f>
         <v>FAIL</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
+    <row r="6" ht="15" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="D6" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>FAIL</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
+      <c r="B6" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>FAIL</v>
+      </c>
+    </row>
+    <row r="7" ht="15" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="D7" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>FAIL</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
+      <c r="B7" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>FAIL</v>
+      </c>
+    </row>
+    <row r="8" ht="15" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="D8" s="4" t="str">
+      <c r="B8" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" s="2" t="str">
         <f t="shared" si="0"/>
         <v>FAIL</v>
       </c>
@@ -6511,12 +6523,12 @@
     <mergeCell ref="A1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="D3:D8">
-    <cfRule type="cellIs" dxfId="14" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:D8">
-    <cfRule type="cellIs" dxfId="15" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6533,120 +6545,120 @@
       <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.55" customHeight="1"/>
+  <sheetFormatPr defaultRowHeight="14.45" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.25" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="16.734375" customWidth="1"/>
-    <col min="2" max="2" width="25.578125" customWidth="1"/>
-    <col min="3" max="3" width="23.68359375" customWidth="1"/>
-    <col min="4" max="4" width="5.7890625" customWidth="1"/>
+    <col min="1" max="1" width="16.7109375" customWidth="1"/>
+    <col min="2" max="2" width="25.5703125" customWidth="1"/>
+    <col min="3" max="3" width="23.7109375" customWidth="1"/>
+    <col min="4" max="4" width="5.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.4" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="8"/>
-    </row>
-    <row r="2" ht="14.4" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="4"/>
-      <c r="B2" s="3" t="s">
+    <row r="1" ht="14.45" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="7"/>
+    </row>
+    <row r="2" ht="14.45" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="2"/>
+      <c r="B2" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="8" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" ht="14.4" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
+    <row r="3" ht="14.45" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="D3" s="5" t="str">
+      <c r="B3" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="D3" s="4" t="str">
         <f>IF(B3=C3,"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
+    <row r="4" ht="15" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="D4" s="4" t="str">
+      <c r="B4" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D4" s="2" t="str">
         <f>IF(B4=C4,"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
+    <row r="5" ht="15" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="D5" s="4" t="str">
+      <c r="B5" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D5" s="2" t="str">
         <f t="shared" ref="D5:D8" si="0">IF(B5=C5,"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
+    <row r="6" ht="15" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="D6" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>PASS</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
+      <c r="B6" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D6" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+    </row>
+    <row r="7" ht="15" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="D7" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>FAIL</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
+      <c r="B7" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D7" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>FAIL</v>
+      </c>
+    </row>
+    <row r="8" ht="15" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="D8" s="4" t="str">
+      <c r="B8" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" s="2" t="str">
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
@@ -6656,12 +6668,12 @@
     <mergeCell ref="A1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="D3:D8">
-    <cfRule type="cellIs" dxfId="16" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="2" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:D8">
-    <cfRule type="cellIs" dxfId="17" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="1" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
